--- a/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
+++ b/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\IECCpUAEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffRissman\CodeRepositories\eps-us\InputData\indst\IECCpUAEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2B0120-557D-4522-B1EA-053A8D272774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC49DAD-8EC2-4972-8D6D-74C169019BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26160" yWindow="3204" windowWidth="18480" windowHeight="14592" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
+    <workbookView xWindow="2880" yWindow="345" windowWidth="37395" windowHeight="22410" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Boilers" sheetId="3" r:id="rId2"/>
     <sheet name="Cooling" sheetId="4" r:id="rId3"/>
-    <sheet name="IECCpUAEU" sheetId="2" r:id="rId4"/>
+    <sheet name="NB Medium Temp" sheetId="9" r:id="rId4"/>
+    <sheet name="NB High Temp" sheetId="7" r:id="rId5"/>
+    <sheet name="Machine Drive" sheetId="5" r:id="rId6"/>
+    <sheet name="Electrochemical" sheetId="6" r:id="rId7"/>
+    <sheet name="Other" sheetId="10" r:id="rId8"/>
+    <sheet name="IECCpUAEU" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +43,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D998E602-6977-404A-8516-5F3163F500FA}</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{D998E602-6977-404A-8516-5F3163F500FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Left as original database, but I think it should be (small) not large, otherwise no difference in this and the next</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="391">
   <si>
     <t>IECCpUAEU Industrial Equipment Capital Cost per Unit Annual Energy Use</t>
   </si>
@@ -173,42 +196,6 @@
     <t>Natural gas boilers</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>Natural gas price ($/MMBtu)</t>
-  </si>
-  <si>
-    <t>Hourly fuel cost ($)</t>
-  </si>
-  <si>
-    <t>First-Year Total Cost ($)</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>First-Year cost is capital cost plus the first year of fuel costs.</t>
-  </si>
-  <si>
-    <t>First-Year Fuel Cost</t>
-  </si>
-  <si>
-    <t>First-Year Fuel Use (BTU)</t>
-  </si>
-  <si>
     <t>BTU</t>
   </si>
   <si>
@@ -218,27 +205,12 @@
     <t>$/(BTU/yr)</t>
   </si>
   <si>
-    <t>This represents the same boiler in different regions, so we should average the minimal differences in fuel use, which may be rounding error in NREL's values)</t>
-  </si>
-  <si>
     <t>Unit:  $/(BTU/yr) - dollars of capital cost for equipment per BTU consumed annually by that equipment</t>
   </si>
   <si>
     <t>Natural gas boiler costs</t>
   </si>
   <si>
-    <t>NREL</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy18osti/70485.pdf</t>
-  </si>
-  <si>
-    <t>Page 64, Table 17</t>
-  </si>
-  <si>
-    <t>Electrification Futures Study: End-Use Electric Technology Cost and Performance Projections through 2050</t>
-  </si>
-  <si>
     <t>Industrial fossil fuel boilers</t>
   </si>
   <si>
@@ -465,6 +437,826 @@
   </si>
   <si>
     <t>Florida Power &amp; Light</t>
+  </si>
+  <si>
+    <t>Electric motor: induction, squirrel cage, 3 phase, AC, TEFC, 1800 rpm excluding starter, gearing</t>
+  </si>
+  <si>
+    <t>Electric motor: induction, wound rotor, 3 phase, AC, open drip proof, 1800 rpm, excluding starter</t>
+  </si>
+  <si>
+    <t>Electric motor: synchronous, AC open drip proof, 1800 rpm excluding gears</t>
+  </si>
+  <si>
+    <t>Electric motor: synchronous, open drip proof, AC, 1200 rpm excluding gears</t>
+  </si>
+  <si>
+    <t>Electric motor: gear reduced TEFC, 1800 rpm plus gear reducer to give fixed output rpm</t>
+  </si>
+  <si>
+    <t>Electric motor: variable speed TEFC, 1800 rpm plus V-belt unit for speed control 2/1 to 5/1 at 3480, 520 and 30 rpm</t>
+  </si>
+  <si>
+    <t>kW (at 1800 rpm)</t>
+  </si>
+  <si>
+    <t>Drive: gear unit, general, single, double, triple reduction on concentric, offset or vertical right angle drives, excluding lubrication system and motor</t>
+  </si>
+  <si>
+    <t>kW (w/ reduction ratio)</t>
+  </si>
+  <si>
+    <t>Drive: gear unit, general, single, double, triple reduction on concentric, offset or vertical right angle drives, excluding lubrication system and motor (large)</t>
+  </si>
+  <si>
+    <t>Drive: gear unit, medium duty, single reduction 20/1 to 50/1 excluding lubrication system and motor (large)</t>
+  </si>
+  <si>
+    <t>Equipment Name</t>
+  </si>
+  <si>
+    <t>Scaling Unit</t>
+  </si>
+  <si>
+    <t>Min Scale</t>
+  </si>
+  <si>
+    <t>Max Scale</t>
+  </si>
+  <si>
+    <t>Min Cost</t>
+  </si>
+  <si>
+    <t>Max Cost</t>
+  </si>
+  <si>
+    <t>Scaling Factor</t>
+  </si>
+  <si>
+    <t>CEPCI</t>
+  </si>
+  <si>
+    <t>Equipment cost = minimum equipment cost * (desired equipment scale value / minimum equipment scale value)scaling factor * (current CEPCI / listed CEPCI); 2024 CPI is ~800</t>
+  </si>
+  <si>
+    <t>Equipment CapEx cost derived from the AssessCCUS's Capital Equipment Cost Database's equation, based on data from Woods 2007 (see sources in About):</t>
+  </si>
+  <si>
+    <t>$/BTU</t>
+  </si>
+  <si>
+    <t>Simple Average for electric motors/drive units:</t>
+  </si>
+  <si>
+    <t>Global CO2 Initiative at Uniiversity of Michigan</t>
+  </si>
+  <si>
+    <t>Assess CCUS Capital Equipment Cost Database</t>
+  </si>
+  <si>
+    <t>with additional data derived from their primary source:</t>
+  </si>
+  <si>
+    <t>Donald R. Woods</t>
+  </si>
+  <si>
+    <t>Appendix D of Rules of Thumb in Engineering</t>
+  </si>
+  <si>
+    <t>Information on a diesel engine and various electric motors and drives (Rows 144-155)</t>
+  </si>
+  <si>
+    <t>kW (scale average)</t>
+  </si>
+  <si>
+    <t>equiv. HP</t>
+  </si>
+  <si>
+    <t>Weighted Average for electric motors/drive units:</t>
+  </si>
+  <si>
+    <t>HP bins represented are 1-5, 6-20, 21-50,101-200,1000+. Not represented are 51-100 (2.9% of motor stock), 201-500 (0.7%), 501-1000 (0.2%). Weighted averages thus take % of motor inventory in a given HP bin and divide by 96.2%; weighted averages also average the values within a bin.</t>
+  </si>
+  <si>
+    <t>Operating hours, and percentage of motors in a given horsepower bin for calculating weighted averages,</t>
+  </si>
+  <si>
+    <t>The recent assessment did not have data disaggregated in the appropriate way to provide more recent values.</t>
+  </si>
+  <si>
+    <t>were obtained from the U.S. Industrial Electric Motor Systems Market Opportunities Assessment (2002).</t>
+  </si>
+  <si>
+    <t>U.S. Industrial Electric Motor Systems Market Opportunities Assessment (2002)</t>
+  </si>
+  <si>
+    <t>Annual Operating Hrs</t>
+  </si>
+  <si>
+    <t>The example gas diesel engine is assumed to be in operation the simple average annual operating hours (5267) of other motors/machine drives.</t>
+  </si>
+  <si>
+    <t>To derive Annual BTU, motor operating hours are based on the equivalent horsepower (HP) bin from the U.S. Industrial Electric Motor Systems Market Opportunities Assessment (2002).  kWh are converted to mmBTU with a conversion factor of 0.003412, then multiplied by annual operating hours.</t>
+  </si>
+  <si>
+    <t>Hydrogen Electrolyzers</t>
+  </si>
+  <si>
+    <t>Based on DoE "Pathways to Commercial Liftoff: Clean Hydrogen" p.13 CAPEX costs</t>
+  </si>
+  <si>
+    <t>Alkaline Water Electrolysis</t>
+  </si>
+  <si>
+    <t>$/kW</t>
+  </si>
+  <si>
+    <t>Proton Exchange Membrane Electrolyzer</t>
+  </si>
+  <si>
+    <t>DOE report cites potential penetrance of PEM of 25% of the U.S. market by 2030</t>
+  </si>
+  <si>
+    <t>U.S. Weighted CapEx/BTU/yr:</t>
+  </si>
+  <si>
+    <t>DOE Electrolyzer Capacity Example Case (p.88):</t>
+  </si>
+  <si>
+    <t>GW/yr</t>
+  </si>
+  <si>
+    <t>Average size</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Average total operating capacity (first 3 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield in kWh/year: </t>
+  </si>
+  <si>
+    <t>Yield in BTU/year</t>
+  </si>
+  <si>
+    <t>DOE projected capex cost reduction by 2030:</t>
+  </si>
+  <si>
+    <t>Capital expenditures  (U.S./Western markets)</t>
+  </si>
+  <si>
+    <t>Capital expenditures (U.S./Western markets):</t>
+  </si>
+  <si>
+    <t>Capital expenditures  (China):</t>
+  </si>
+  <si>
+    <t>$/BTU/yr (US)</t>
+  </si>
+  <si>
+    <t>Capex for AWE electrolyzer at 1.5 GW capacity (US):</t>
+  </si>
+  <si>
+    <t>Capex for PEM electrolyzer at 1.5 GW capacity (US):</t>
+  </si>
+  <si>
+    <t>$/BTU/yr (China)</t>
+  </si>
+  <si>
+    <t>China Data with US Weighted CapEx/BTU/yr:</t>
+  </si>
+  <si>
+    <t>Electrochemical</t>
+  </si>
+  <si>
+    <t>Data from the DOE's Pathways to Commercial Liftoff: Clean Hydrogen , 2023, p.13, p.88</t>
+  </si>
+  <si>
+    <t>Wang et al., 2023. "The multi-scenario projection of cost reduction in hydrogen production by proton exchange membrane (PEM) water electrolysis in the near future (2020–2060) of China." Fuel, Vol. 354</t>
+  </si>
+  <si>
+    <t>China capex numbers provided by:</t>
+  </si>
+  <si>
+    <t>China capex costs based on Wang et al. 2023</t>
+  </si>
+  <si>
+    <t>Electric Arc Furnace (Electric nonboiler high temp example)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapEx costs: </t>
+  </si>
+  <si>
+    <t>$/tonne</t>
+  </si>
+  <si>
+    <t>Energy expenditure/output:</t>
+  </si>
+  <si>
+    <t>kWh/tonne</t>
+  </si>
+  <si>
+    <t>Annual production capacity:</t>
+  </si>
+  <si>
+    <t>tonnes/year</t>
+  </si>
+  <si>
+    <t>kWh/year</t>
+  </si>
+  <si>
+    <t>Annual heat delivered/year (mmBTU):</t>
+  </si>
+  <si>
+    <t>Annual energy expenditure/year (kWh):</t>
+  </si>
+  <si>
+    <t>mmBTU/year</t>
+  </si>
+  <si>
+    <t>CapEx costs per annual yield:</t>
+  </si>
+  <si>
+    <t>$/year</t>
+  </si>
+  <si>
+    <t>$/BTU/year</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Paeng &amp; Azimi</t>
+  </si>
+  <si>
+    <t>Paeng &amp; Azimi 2024</t>
+  </si>
+  <si>
+    <t>130-180 tonnes per hour essentially means</t>
+  </si>
+  <si>
+    <t>Energy Transitions Commission</t>
+  </si>
+  <si>
+    <t>tonnes/year.</t>
+  </si>
+  <si>
+    <t>DIW Berlin 2024</t>
+  </si>
+  <si>
+    <t>Natural Gas-fueled Glass Melting Furnace (NG nonboiler high temp example)</t>
+  </si>
+  <si>
+    <t>Furnace capital cost</t>
+  </si>
+  <si>
+    <t>₤</t>
+  </si>
+  <si>
+    <t>Output rate</t>
+  </si>
+  <si>
+    <t>tonnes glass/day</t>
+  </si>
+  <si>
+    <t>Annual hours of operation (operates continuously):</t>
+  </si>
+  <si>
+    <t>hrs/year</t>
+  </si>
+  <si>
+    <t>Energy expenditure/output</t>
+  </si>
+  <si>
+    <t>Nonboiler High Temp</t>
+  </si>
+  <si>
+    <t>Capex costs per ton:</t>
+  </si>
+  <si>
+    <t>Deutsches Institut für Wirtschaftsforschung</t>
+  </si>
+  <si>
+    <t>"Revisiting Investment Costs for Green Steel: Capital Expenditures, Firm Level Impacts, and Policy Implications"</t>
+  </si>
+  <si>
+    <t>https://www.diw.de/documents/publikationen/73/diw_01.c.901039.de/dp2082.pdf</t>
+  </si>
+  <si>
+    <t>"Technoeconomic Analysis of the Electrorefining Process for Copper and Carbon Removal from Scrap Steel for Green Steelmaking"</t>
+  </si>
+  <si>
+    <t>Industrial &amp; Chemical Engineering Research</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.iecr.4c02665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual production capacity: </t>
+  </si>
+  <si>
+    <t>"Unlocking the first wave of breakthrough steel investments in France"</t>
+  </si>
+  <si>
+    <t>https://www.energy-transitions.org/wp-content/uploads/2023/03/Unlocking-the-First-Wave-of-Breakthrough-Steel-Investments-in-France-March-2022.pdf</t>
+  </si>
+  <si>
+    <t>Electric Example (EAF) References:</t>
+  </si>
+  <si>
+    <t>Natural Gas Example (NG Glass Melting Furnace) References:</t>
+  </si>
+  <si>
+    <t>Glass Technology Services Ltd.</t>
+  </si>
+  <si>
+    <t>"A Study of the Balance Between Furnace Operating Parameters and Recycled Glass in Melting Furnaces."</t>
+  </si>
+  <si>
+    <t>https:/www.glass-ts.com/site/assets/files/1015/2004_-_a_study_of_the_balance_between_furnace_operating_parameters_and_recycled_glass_in_glass_melting_furnaces.pdf</t>
+  </si>
+  <si>
+    <t>CapEx costs:</t>
+  </si>
+  <si>
+    <t>€/ton</t>
+  </si>
+  <si>
+    <t>Rechberger et al. 2020</t>
+  </si>
+  <si>
+    <t>Hydrogen-DR Plant (does not include EAF) (hydrogen high temp example)</t>
+  </si>
+  <si>
+    <t>kWh/ton</t>
+  </si>
+  <si>
+    <t>Vogl et al. 2018</t>
+  </si>
+  <si>
+    <t>tons/year</t>
+  </si>
+  <si>
+    <t>Kiln capital cost</t>
+  </si>
+  <si>
+    <t>GJ/tonne</t>
+  </si>
+  <si>
+    <t>Coal Example (Cement Kiln) References:</t>
+  </si>
+  <si>
+    <t>Vattenfall &amp; Cementa (Heidelberg Cement Group)</t>
+  </si>
+  <si>
+    <t>CemZero</t>
+  </si>
+  <si>
+    <t>Annual hours of operation:</t>
+  </si>
+  <si>
+    <t>hours/year</t>
+  </si>
+  <si>
+    <t>CemZero study</t>
+  </si>
+  <si>
+    <t>Average for rotary kiln, CemZero study</t>
+  </si>
+  <si>
+    <t>China Ruibin Information Network article</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>tons/day</t>
+  </si>
+  <si>
+    <t>Daily production capacity</t>
+  </si>
+  <si>
+    <t>includes conversion factor for GJ to kWh (1:277.778)</t>
+  </si>
+  <si>
+    <t>includes RMB to USD conversion (1:0.14)</t>
+  </si>
+  <si>
+    <t>$/Btu/year</t>
+  </si>
+  <si>
+    <t>Btu/year</t>
+  </si>
+  <si>
+    <t>Annual fuel use</t>
+  </si>
+  <si>
+    <t>Btu/hour</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Capital cost - mean</t>
+  </si>
+  <si>
+    <t>Capital cost - high</t>
+  </si>
+  <si>
+    <t>Capital cost - low</t>
+  </si>
+  <si>
+    <t>Natural Gas-Fired Distillation Columns</t>
+  </si>
+  <si>
+    <t>BTU/year</t>
+  </si>
+  <si>
+    <t>China Ruibin Information Network</t>
+  </si>
+  <si>
+    <t>"How much does it cost to build a rotary kiln with a daily output of 600 tons"</t>
+  </si>
+  <si>
+    <t>http://www.jixiemuye.com/en/business-2/article-364.html</t>
+  </si>
+  <si>
+    <t>DOE (EERE)</t>
+  </si>
+  <si>
+    <t>Energy Savings Potential and RD&amp;D Opportunities for Commercial Building Appliances (2015 Update)</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/sites/prod/files/2016/06/f32/DOE-BTO%20Comml%20Appl%20Report%20-%20Full%20Report_0.pdf</t>
+  </si>
+  <si>
+    <t>Natural gas-fired distillation columns</t>
+  </si>
+  <si>
+    <t>DOE (OSTI)</t>
+  </si>
+  <si>
+    <t>Distributive Distillation Enabled by Microchannel Process Technology</t>
+  </si>
+  <si>
+    <t>https://www.osti.gov/servlets/purl/1077001</t>
+  </si>
+  <si>
+    <t>Electric example (Infrared Heater for Processed Foods)</t>
+  </si>
+  <si>
+    <t>Energy expenditure:</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Based on 16-20 hour operation of food processing plants</t>
+  </si>
+  <si>
+    <t>Shadow Industrial Infrared model</t>
+  </si>
+  <si>
+    <t>Industrial infrared heater vendor</t>
+  </si>
+  <si>
+    <t>Gray cells are not applicable, either because the energy is already in the form of heat or because the equipmen type cannot use that fuel type.</t>
+  </si>
+  <si>
+    <t>Electric and gas-fired ovens</t>
+  </si>
+  <si>
+    <t>Based on a methanol/water separation column.</t>
+  </si>
+  <si>
+    <t>Gas Diesel Engine</t>
+  </si>
+  <si>
+    <t>Capital expenditures</t>
+  </si>
+  <si>
+    <t>Rockefeller Foundation: Electrifying Economies: Detailed Cost Models and Benchmarks</t>
+  </si>
+  <si>
+    <t>Representative engine bhp</t>
+  </si>
+  <si>
+    <t>bhp</t>
+  </si>
+  <si>
+    <t>EPA General Conformity Training Modules: Appendix A Sample Emissions Calculations</t>
+  </si>
+  <si>
+    <t>Representative engine kW</t>
+  </si>
+  <si>
+    <t>Representative annual operating hours</t>
+  </si>
+  <si>
+    <t>Mmbtu</t>
+  </si>
+  <si>
+    <t>Electric Motors</t>
+  </si>
+  <si>
+    <t>Remaining "Other Processes" cells use natural gas distillation column values modified by the ratios of capital costs for</t>
+  </si>
+  <si>
+    <t>boilers using each fuel type to boilers using natural gas.</t>
+  </si>
+  <si>
+    <t>Using a 400-horsepower boiler as our example:</t>
+  </si>
+  <si>
+    <t>water tube boiler</t>
+  </si>
+  <si>
+    <t>fire tube boiler</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>horsepower</t>
+  </si>
+  <si>
+    <t>kW / horsepower</t>
+  </si>
+  <si>
+    <t>annual energy consumption</t>
+  </si>
+  <si>
+    <t>State of Michigan</t>
+  </si>
+  <si>
+    <t>Miscellaneous Industrial Costs</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/-/media/Project/Websites/treasury/VOL/Vol236UIP12MiscellaneousIndustrialCosts.pdf?rev=b2a14a143c11493e8d0a30587afaa282</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>Cement plant (whole plant) capital cost per unit capacity</t>
+  </si>
+  <si>
+    <t>$/ton cement annual production capacity</t>
+  </si>
+  <si>
+    <t>GJ/day</t>
+  </si>
+  <si>
+    <t>GJ/year</t>
+  </si>
+  <si>
+    <t>$/(GJ/yr)</t>
+  </si>
+  <si>
+    <t>$/(kWh/yr)</t>
+  </si>
+  <si>
+    <t>Since these are Chinese prices, we double-checked using prices from Europe.  They come out about the same:</t>
+  </si>
+  <si>
+    <t>CapEx of cement kiln witout CCS</t>
+  </si>
+  <si>
+    <t>2014 euros / ton clinker (annual capacity)</t>
+  </si>
+  <si>
+    <t>Average share of clinker in cement (global average)</t>
+  </si>
+  <si>
+    <t>2014 euros / ton cement (annual capacity)</t>
+  </si>
+  <si>
+    <t>https://www.wri.org/insights/lower-carbon-blended-cement#:~:text=U.S.%20cement%20produces%20more%20emissions,is%20between%200.64%20and%200.76.</t>
+  </si>
+  <si>
+    <t>2014 USD / 2014 euro</t>
+  </si>
+  <si>
+    <t>2014 USD / ton cement (annual capacity)</t>
+  </si>
+  <si>
+    <t>2024 USD / 2014 USD</t>
+  </si>
+  <si>
+    <t>2024 USD / ton cement (annual capacity)</t>
+  </si>
+  <si>
+    <t>2024 USD / (GJ/yr)</t>
+  </si>
+  <si>
+    <t>kWh / GJ</t>
+  </si>
+  <si>
+    <t>USD / (kWh/yr)</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/330875028_Techno-economic_analysis_of_calcium_looping_processes_for_low_CO_2_emission_cement_plants</t>
+  </si>
+  <si>
+    <t>BTU / kWh</t>
+  </si>
+  <si>
+    <t>USD / (BTU/yr)</t>
+  </si>
+  <si>
+    <t>Europe cement kiln reference:</t>
+  </si>
+  <si>
+    <t>Edoardo De Lena et al.</t>
+  </si>
+  <si>
+    <t>Techno-economic analysis of calcium looping processes for low CO2 emission cement plants</t>
+  </si>
+  <si>
+    <t>Table 8, "Capex, Europ/ton clinker" row</t>
+  </si>
+  <si>
+    <t>Coal-fueled cement kiln</t>
+  </si>
+  <si>
+    <t>Machine Drive</t>
+  </si>
+  <si>
+    <t>Oven Type</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>deck</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>convection</t>
+  </si>
+  <si>
+    <t>conveyor</t>
+  </si>
+  <si>
+    <t>Commercial Oven Installed Base by Equipment Type</t>
+  </si>
+  <si>
+    <t>Installed Base</t>
+  </si>
+  <si>
+    <t>convection (1/2)</t>
+  </si>
+  <si>
+    <t>convection (full)</t>
+  </si>
+  <si>
+    <t>combiantion</t>
+  </si>
+  <si>
+    <t>rotary rack</t>
+  </si>
+  <si>
+    <t>rorary</t>
+  </si>
+  <si>
+    <t>cook &amp; hold</t>
+  </si>
+  <si>
+    <t>dough proofer</t>
+  </si>
+  <si>
+    <t>p. 42, table 2-8</t>
+  </si>
+  <si>
+    <t>Commercial oven installed base by fuel type</t>
+  </si>
+  <si>
+    <t>Fuel type</t>
+  </si>
+  <si>
+    <t>installed base</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Commercial oven capital cost breakdown by oven type</t>
+  </si>
+  <si>
+    <t>Average Cost</t>
+  </si>
+  <si>
+    <t>proofer</t>
+  </si>
+  <si>
+    <t>p. 44, table 2-10</t>
+  </si>
+  <si>
+    <t>p. 43, table 2-9</t>
+  </si>
+  <si>
+    <t>Commercial oven use characteristics</t>
+  </si>
+  <si>
+    <t>Operating Hrs/Yr</t>
+  </si>
+  <si>
+    <t>Capacity (btu/hr)</t>
+  </si>
+  <si>
+    <t>Capacity (kW)</t>
+  </si>
+  <si>
+    <t>p. 45, table 2-11</t>
+  </si>
+  <si>
+    <t>Calculated energy use by fuel type</t>
+  </si>
+  <si>
+    <t>Energy Use (btu/yr)</t>
+  </si>
+  <si>
+    <t>Weighted avg CapEx</t>
+  </si>
+  <si>
+    <t>CapEx/(BTU/yr)</t>
+  </si>
+  <si>
+    <t>For reference, not used in calculations above:</t>
+  </si>
+  <si>
+    <t>Commercial Ovens (used as our model for medium-temperature, non-boiler industrial heating equipment)</t>
+  </si>
+  <si>
+    <t>The operating hours per year reported in the table above are for commercial ovens.</t>
+  </si>
+  <si>
+    <t>We would expect an industrial facility to operate more hours per year than a commercial bakery.</t>
+  </si>
+  <si>
+    <t>For this reason, and for consistency across different industrial equipment categories in this spreadsheet,</t>
+  </si>
+  <si>
+    <t>we use the number of operating hours per year from the "Boilers" tab to also represent the operating hours</t>
+  </si>
+  <si>
+    <t>per year for medium-temperature industrial heating equipment.</t>
+  </si>
+  <si>
+    <t>Operating hours per year:</t>
+  </si>
+  <si>
+    <t>Adjustment to Operating Hours per Year</t>
+  </si>
+  <si>
+    <t>It seems reasonable that machine drive (light green) is more expensive than other end uses, given that it's producing rotational kinetic energy rather than heat or cooling.</t>
+  </si>
+  <si>
+    <t>fully commercialized, electrified, high-temperature heating equipment.  For instance, cement kilns burn coal and steam crackers use natural gas.  Other electrical furnaces</t>
+  </si>
+  <si>
+    <t>The data on electric arc furnaces (our model for electric high-temp heat) has been double-checked and seem solid, and there are few other good examples of</t>
+  </si>
+  <si>
+    <t>exist (like induction furnaces), but electric arc furnaces are likely the most common type and are likely the best choice to use as our model equipment type for high-temp</t>
+  </si>
+  <si>
+    <t>electrified industrial heating equipment. So we do not consider them to bean outlier - i.e., the higher cost is justified.</t>
+  </si>
+  <si>
+    <t>Note: since the CapEx here scales with tonnes capacity, the final cost per unit capacity isn't affected by the annual production capacity figure above.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not used</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because it is the whole plant, not just the kiln.  Kiln-only data are just below.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -474,17 +1266,10 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +1310,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,14 +1371,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -581,34 +1429,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,33 +1464,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,6 +1528,1856 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Capital Cost of Equipment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per Unit Annual Energy Consumption</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boilers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6711966224873446E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5989491110961776E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3984236666442662E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonboiler low temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6711966224873446E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5989491110961776E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3984236666442662E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonboiler med temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4771933032458345E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonboiler high temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7204637228083889E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5951806950193628E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0725243194734525E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5951806950193628E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.265784625690839E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4520366169683022E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7132239620912736E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>machine drive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4733459973606227E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>electrochemical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>4.4539618429716232E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IECCpUAEU!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IECCpUAEU!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IECCpUAEU!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0401933942914745E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0886792055175448E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2284525195577483E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0886792055175448E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3426787793366228E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AC6F-455C-AF10-DE9805C4FD60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1076970720"/>
+        <c:axId val="1076972160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1076970720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076972160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1076972160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076970720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D8A9BC-1347-1F10-1397-4A45F58C402B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8726805" y="22006560"/>
+          <a:ext cx="8143875" cy="2545080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>120400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950AD3EF-C451-057E-3713-FD08E757AEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="22075140"/>
+          <a:ext cx="7991475" cy="2429260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BFA2FA-DB13-925C-2E8E-221F7BFBE255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Nik Anil Sawe" id="{04DE444D-9D1B-4089-AFE5-A6D692FB4808}" userId="S::sawe@stanford.edu::1fed2c22-145d-47f5-8d2a-b4e45e4e3b03" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,23 +3695,31 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B18" dT="2025-01-03T22:48:32.17" personId="{04DE444D-9D1B-4089-AFE5-A6D692FB4808}" id="{D998E602-6977-404A-8516-5F3163F500FA}">
+    <text>Left as original database, but I think it should be (small) not large, otherwise no difference in this and the next</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3CA314-6128-4FC9-9CED-BF85AF9DB226}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.44140625" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -996,212 +3727,559 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2011</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="38">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="38">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="36">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="37"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="36">
+        <v>38231</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B102" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="36"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C08BA00C-5E72-42AD-BB8F-655D467C5298}"/>
+    <hyperlink ref="B105" r:id="rId2" xr:uid="{810625CC-59B0-4E09-BD8A-7942EF52112A}"/>
+    <hyperlink ref="B106" r:id="rId3" xr:uid="{DE5DC99A-D169-4E5D-98F4-A0C74D220DA2}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{EC39133E-2B1E-4926-9BAB-A0BC92F6703D}"/>
+    <hyperlink ref="B117" r:id="rId5" xr:uid="{5CBB2DBF-381E-4F40-8899-29D4B5FC9B35}"/>
+    <hyperlink ref="B135" r:id="rId6" display="Data from the DOE's Pathways to Commercial Liftoff: Clean Hydrogen (p.13, p.88)" xr:uid="{451B96CC-C781-4216-8C03-8132EE3013B2}"/>
+    <hyperlink ref="B138" r:id="rId7" xr:uid="{8276223D-26B3-43EA-A781-2BDC0C41D374}"/>
+    <hyperlink ref="B65" r:id="rId8" xr:uid="{C723E247-B6C1-46C7-B576-CF146861E8AC}"/>
+    <hyperlink ref="B72" r:id="rId9" xr:uid="{BA83290A-C082-4AAB-AFC4-39DE2DEA36E6}"/>
+    <hyperlink ref="B78" r:id="rId10" xr:uid="{437DE8DA-77A2-48D0-8792-6CEB29629218}"/>
+    <hyperlink ref="B102" r:id="rId11" xr:uid="{8C5AD67E-D9AA-4BD2-BE55-FC759DD68FCE}"/>
+    <hyperlink ref="B83" r:id="rId12" xr:uid="{D30485F8-6CEE-4196-A36A-BE4A2803E3DD}"/>
+    <hyperlink ref="B51" r:id="rId13" xr:uid="{07F897CB-7353-674E-92F0-010511F2EA56}"/>
+    <hyperlink ref="B57" r:id="rId14" xr:uid="{D0781D44-31AC-BC44-B7B2-E83275B62102}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{27F2C98F-DA26-4901-A0EB-6AC6A38F1C0C}"/>
+    <hyperlink ref="B94" r:id="rId16" xr:uid="{561EFB21-D77A-400A-A718-A022D22539BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78C19FD-7E25-465C-BF9B-84ECCFD8C3AD}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
@@ -1209,20 +4287,20 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +4311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +4326,7 @@
         <v>1.3250181085808173E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1263,7 +4341,7 @@
         <v>2.7219349068709415E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1278,7 +4356,7 @@
         <v>2.0658766754259837E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1295,22 +4373,22 @@
         <v>1.8903988741624482E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1321,21 +4399,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <f>D9/A15</f>
-        <v>6.301329580541494E-6</v>
+        <f>D9*A15</f>
+        <v>5.6711966224873446E-5</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
@@ -1344,373 +4422,305 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="8">
+        <v>80375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="8">
+        <v>91475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="8">
+        <f>AVERAGE(B24:B25)</f>
+        <v>85925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29">
+        <v>0.74570000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <f>B28*B29</f>
+        <v>298.28000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="22">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34">
+        <f>B30*B32</f>
+        <v>1574918.4000000001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>3412.14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36">
+        <f>B34*B35</f>
+        <v>5373842069.3760004</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <f>B26/B36</f>
+        <v>1.5989491110961776E-5</v>
+      </c>
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C23">
-        <v>5.37</v>
-      </c>
-      <c r="D23">
-        <v>22.47</v>
-      </c>
-      <c r="E23">
-        <v>206190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C24">
-        <v>7.87</v>
-      </c>
-      <c r="D24">
-        <v>32.93</v>
-      </c>
-      <c r="E24">
-        <v>261399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B43">
+        <v>2000</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="D43">
+        <f>B43*C43</f>
+        <v>600000</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <f>$B$50/E43</f>
+        <v>40035776000</v>
+      </c>
+      <c r="G43" s="12">
+        <f>D43/F43</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C25">
-        <v>3.8</v>
-      </c>
-      <c r="D25">
-        <v>15.91</v>
-      </c>
-      <c r="E25">
-        <v>171567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C26">
-        <v>6.2</v>
-      </c>
-      <c r="D26">
-        <v>25.94</v>
-      </c>
-      <c r="E26">
-        <v>224501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="25">
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="21">
-        <f>D23*$B$28</f>
-        <v>118641.59999999999</v>
-      </c>
-      <c r="C32" s="23">
-        <f>B32/C23*10^6</f>
-        <v>22093407821.22905</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="21">
-        <f t="shared" ref="B33:B35" si="1">D24*$B$28</f>
-        <v>173870.4</v>
-      </c>
-      <c r="C33" s="23">
-        <f>B33/C24*10^6</f>
-        <v>22092808132.147396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="21">
-        <f t="shared" si="1"/>
-        <v>84004.800000000003</v>
-      </c>
-      <c r="C34" s="23">
-        <f>B34/C25*10^6</f>
-        <v>22106526315.789478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="21">
-        <f t="shared" si="1"/>
-        <v>136963.20000000001</v>
-      </c>
-      <c r="C35" s="23">
-        <f>B35/C26*10^6</f>
-        <v>22090838709.677422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <f>AVERAGE(B23:B26)/AVERAGE(C32:C35)</f>
-        <v>3.9618218239405674E-6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>67</v>
       </c>
       <c r="B44">
         <v>2000</v>
       </c>
       <c r="C44">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D44">
-        <f>B44*C44</f>
-        <v>600000</v>
+        <f t="shared" ref="D44:D45" si="1">B44*C44</f>
+        <v>400000</v>
       </c>
       <c r="E44" s="19">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F44">
-        <f>$B$51/E44</f>
-        <v>40035776000</v>
+        <f t="shared" ref="F44:F45" si="2">$B$50/E44</f>
+        <v>42390821647.058823</v>
       </c>
       <c r="G44" s="12">
-        <f>D44/F44</f>
-        <v>1.4986595988547842E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G44:G45" si="3">D44/F44</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>2000</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:D46" si="2">B45*C45</f>
-        <v>400000</v>
+        <f t="shared" si="1"/>
+        <v>200000</v>
       </c>
       <c r="E45" s="19">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F46" si="3">$B$51/E45</f>
-        <v>42390821647.058823</v>
-      </c>
-      <c r="G45" s="12">
-        <f t="shared" ref="G45:G46" si="4">D45/F45</f>
-        <v>9.436004881678272E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46">
-        <v>2000</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="E46" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="F46">
+        <v>37928629894.736847</v>
+      </c>
+      <c r="G45" s="9">
         <f t="shared" si="3"/>
-        <v>37928629894.736847</v>
-      </c>
-      <c r="G46" s="9">
-        <f t="shared" si="4"/>
         <v>5.2730615515260925E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <f>B43*B32</f>
+        <v>10560000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>3412.14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <f>B48*B49</f>
+        <v>36032198400</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49">
-        <f>B44*B28</f>
-        <v>10560000</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50">
-        <v>3412.14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51">
-        <f>B49*B50</f>
-        <v>36032198400</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
-        <f>A40*1.5</f>
-        <v>5.9427327359108515E-6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
+      <c r="B58" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <f>A39*1.5</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1724,339 +4734,338 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8">
         <v>307500</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="28">
+        <v>84</v>
+      </c>
+      <c r="B6">
         <v>4000</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8">
         <v>75863</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8">
         <v>6226</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="30">
+        <v>89</v>
+      </c>
+      <c r="B11" s="25">
         <v>0.45</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="30">
+        <v>91</v>
+      </c>
+      <c r="B12" s="25">
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="23">
+        <v>93</v>
+      </c>
+      <c r="B14" s="21">
         <f>B8/B11</f>
         <v>168584.44444444444</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="23">
+        <v>95</v>
+      </c>
+      <c r="B15" s="21">
         <f>B9/B12</f>
         <v>41506.666666666672</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>100000</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>3412.14</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B20" s="9">
         <f>B14*B17</f>
         <v>16858444444.444445</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B21" s="9">
         <f>B15*B18</f>
         <v>141626557.60000002</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B26" s="9">
         <f>SUM(B20:B21)</f>
         <v>17000071002.044445</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B27" s="12">
         <f>B5/B26</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B32" s="8">
         <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B33" s="8">
         <v>500</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B34" s="8">
         <f>AVERAGE(B32:B33)</f>
         <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B38" s="8">
         <f>B34*B36</f>
         <v>175000</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>133</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>116</v>
       </c>
       <c r="B41">
         <v>0.57599999999999996</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <f>B41*B36</f>
         <v>288</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <f>B6</f>
         <v>4000</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <f>B42*B44</f>
         <v>1152000</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B47" s="9">
         <f>B46*B18</f>
         <v>3930785280</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B49" s="12">
         <f>B38/B47</f>
         <v>4.4520366169683022E-5</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2065,23 +5074,2325 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F9C022-A310-4BEE-BA08-E19CC60071F1}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5">
+        <v>492000</v>
+      </c>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6">
+        <v>135000</v>
+      </c>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>474000</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8">
+        <v>70000</v>
+      </c>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9">
+        <v>22000</v>
+      </c>
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10">
+        <v>18000</v>
+      </c>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11">
+        <v>216000</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12">
+        <v>51000</v>
+      </c>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13">
+        <v>125000</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="20">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="20">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="20">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23">
+        <v>4380</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24">
+        <v>4380</v>
+      </c>
+      <c r="C24">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="1">
+        <f>Boilers!B32</f>
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="47">
+        <v>3412.14</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40">
+        <f>$B$33*D23*B36</f>
+        <v>270241488</v>
+      </c>
+      <c r="C40" s="25">
+        <f>($B$17*$B$5+$B$18*SUM($B$6:$B$7)+$B$19*$B$13)/SUM($B$5:$B$7,$B$13)</f>
+        <v>9396.8189233278954</v>
+      </c>
+      <c r="D40" s="12">
+        <f>C40/B40</f>
+        <v>3.4771933032458345E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41">
+        <f>$B$33*C24</f>
+        <v>295680000</v>
+      </c>
+      <c r="C41" s="25">
+        <f>($B$17*$B$5+$B$18*SUM($B$6:$B$7)+$B$19*$B$13)/SUM($B$5:$B$7,$B$13)</f>
+        <v>9396.8189233278954</v>
+      </c>
+      <c r="D41" s="12">
+        <f>C41/B41</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53">
+        <v>722000</v>
+      </c>
+      <c r="C53" s="44">
+        <f>B53/SUM($B$53:$B$54)</f>
+        <v>0.45012468827930174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54">
+        <v>882000</v>
+      </c>
+      <c r="C54" s="44">
+        <f>B54/SUM($B$53:$B$54)</f>
+        <v>0.54987531172069826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463E7825-E51A-4EE8-BEA7-048823A51DEE}">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="F3" s="25">
+        <f>254*1.04</f>
+        <v>264.16000000000003</v>
+      </c>
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="F5" s="32">
+        <v>800000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7">
+        <f>F4*F5</f>
+        <v>360000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8">
+        <f>F7*0.003412</f>
+        <v>1228320</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="25">
+        <f>F3*F5</f>
+        <v>211328000.00000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="12">
+        <f>F9/(F8*10^6)</f>
+        <v>1.7204637228083889E-4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12">
+        <f>8760*155</f>
+        <v>1357800</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="20">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="39">
+        <f>F16/F23</f>
+        <v>26.356589147286826</v>
+      </c>
+      <c r="G17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="39">
+        <f>F17/277.778</f>
+        <v>9.4883645023316546E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="9">
+        <f>F18/3412</f>
+        <v>2.7808805692648461E-5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21">
+        <v>36000000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="20">
+        <f>F21*0.14</f>
+        <v>5040000.0000000009</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(5.1,7.8)</f>
+        <v>6.4499999999999993</v>
+      </c>
+      <c r="G23" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24">
+        <v>8000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25">
+        <v>600</v>
+      </c>
+      <c r="G25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>F23*F25</f>
+        <v>3869.9999999999995</v>
+      </c>
+      <c r="G26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>F26*(F24/24)</f>
+        <v>1289999.9999999998</v>
+      </c>
+      <c r="G27" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28">
+        <f>F27*277.778</f>
+        <v>358333619.99999994</v>
+      </c>
+      <c r="G28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29">
+        <f>F28*0.003412</f>
+        <v>1222634.3114399998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="12">
+        <f>(F21*0.14)/(F29*10^6)</f>
+        <v>4.1222464909102436E-6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34">
+        <v>21.08</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35">
+        <v>0.76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="34">
+        <f>F34*F35</f>
+        <v>16.020799999999998</v>
+      </c>
+      <c r="G36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1.3284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="34">
+        <f>F36*F37</f>
+        <v>21.282030719999998</v>
+      </c>
+      <c r="G38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1.32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="34">
+        <f>F38*F39</f>
+        <v>28.092280550399998</v>
+      </c>
+      <c r="G40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="34">
+        <f>F40/F23</f>
+        <v>4.3553923333953488</v>
+      </c>
+      <c r="G41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>277.77800000000002</v>
+      </c>
+      <c r="G42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>F41/F42</f>
+        <v>1.5679399856703368E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>3412.14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="12">
+        <f>F43/F44</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="32">
+        <v>6000000</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50">
+        <v>300</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51">
+        <v>8760</v>
+      </c>
+      <c r="G51" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52">
+        <v>1100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54">
+        <f>(F3*365)*F52</f>
+        <v>106060240.00000001</v>
+      </c>
+      <c r="G54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="34">
+        <f>F54*0.003412</f>
+        <v>361877.53888000007</v>
+      </c>
+      <c r="G55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="12">
+        <f>(F49*1.25)/(F55*10^6)</f>
+        <v>2.0725243194734525E-5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60">
+        <f>574-184</f>
+        <v>390</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61">
+        <v>3500</v>
+      </c>
+      <c r="G61" t="s">
+        <v>242</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="32">
+        <v>1500000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64">
+        <f>F61*F62</f>
+        <v>5250000000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65">
+        <f>F64*0.003412</f>
+        <v>17913000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="25">
+        <f>F60*F62</f>
+        <v>585000000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="12">
+        <f>F66/(F65*10^6)</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{74C988DB-76D8-4145-BBE1-D4D23B225EB8}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{AE3C2C77-DEE7-417F-A91D-8588011B2FE4}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{094BE59D-41E3-4FD7-9FDF-AC064CEA0F0D}"/>
+    <hyperlink ref="I49" r:id="rId4" xr:uid="{846023E9-701C-4DCB-AFF8-68371AA5EAAB}"/>
+    <hyperlink ref="I50:I52" r:id="rId5" display="Glass Technology Services Ltd." xr:uid="{22C9B764-C975-4832-A877-CAEDEFC86ABD}"/>
+    <hyperlink ref="I61" r:id="rId6" xr:uid="{B9C4C936-222A-415A-93F7-C04647B8A8F8}"/>
+    <hyperlink ref="I62" r:id="rId7" xr:uid="{91898801-3109-4817-A332-119D9BDB6683}"/>
+    <hyperlink ref="I24" r:id="rId8" xr:uid="{B56B537F-0535-4F1F-BD10-6F95D26F1CF9}"/>
+    <hyperlink ref="I21" r:id="rId9" xr:uid="{F4D113B3-6174-475B-B0C2-A087D85EE29B}"/>
+    <hyperlink ref="I25" r:id="rId10" xr:uid="{E4FAB926-5227-415A-85B9-0833AFE81296}"/>
+    <hyperlink ref="I35" r:id="rId11" location=":~:text=U.S.%20cement%20produces%20more%20emissions,is%20between%200.64%20and%200.76." xr:uid="{D3609DDD-82DB-4DD7-9D57-0F7BC42F9A76}"/>
+    <hyperlink ref="I34" r:id="rId12" xr:uid="{1BA8B66B-9A20-4E0A-9B55-7DB08D6E8435}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8383B1-B2B0-41DD-8BAC-656486EFD613}">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>1500</v>
+      </c>
+      <c r="F9">
+        <v>43.754184261800326</v>
+      </c>
+      <c r="G9">
+        <v>512727.48211595422</v>
+      </c>
+      <c r="H9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J14" si="0">AVERAGE(D9,E9)</f>
+        <v>750.15</v>
+      </c>
+      <c r="L9">
+        <f>J9*1.34102</f>
+        <v>1005.9661530000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N19" si="1">F9*(((D9+E9)/2)/D9)^H9*(800/I9)</f>
+        <v>191398.76147944329</v>
+      </c>
+      <c r="P9">
+        <v>7436</v>
+      </c>
+      <c r="R9">
+        <f>J9*0.003412*P9</f>
+        <v>19032.529744800002</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" ref="U9:U19" si="2">N9/(R9*10^6)</f>
+        <v>1.005640154229821E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>1455.1962633016838</v>
+      </c>
+      <c r="G10">
+        <v>22223.515169375642</v>
+      </c>
+      <c r="H10">
+        <v>0.93</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L19" si="3">J10*1.34102</f>
+        <v>105.94058000000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9793.3452423684339</v>
+      </c>
+      <c r="P10">
+        <v>4174</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R19" si="4">J10*0.003412*P10</f>
+        <v>1125.0933520000001</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="2"/>
+        <v>8.7044734776536431E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>7000</v>
+      </c>
+      <c r="F11">
+        <v>64088.852077797135</v>
+      </c>
+      <c r="G11">
+        <v>1137028.3379406705</v>
+      </c>
+      <c r="H11">
+        <v>0.96</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>3675</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>4928.2485000000006</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>490020.45239808032</v>
+      </c>
+      <c r="P11">
+        <v>7436</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>93240.747600000002</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="2"/>
+        <v>5.2554324692917872E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>7000</v>
+      </c>
+      <c r="F12">
+        <v>77307.967291430425</v>
+      </c>
+      <c r="G12">
+        <v>655523.04372978187</v>
+      </c>
+      <c r="H12">
+        <v>0.81</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>5028.8250000000007</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>316310.68638940249</v>
+      </c>
+      <c r="P12">
+        <v>7436</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>95143.62</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3245601374995242E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>0.35</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>1297.2736980632467</v>
+      </c>
+      <c r="G13">
+        <v>1800</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.075</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1.4415964999999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1298.941773935192</v>
+      </c>
+      <c r="P13">
+        <v>2745</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>10.0683855</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.290119229081159E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14">
+        <v>1.8</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>1800</v>
+      </c>
+      <c r="G14">
+        <v>5537.4069913635094</v>
+      </c>
+      <c r="H14">
+        <v>0.53</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>11.264568000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>3257.8875198502201</v>
+      </c>
+      <c r="P14">
+        <v>3391</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>97.18877280000001</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3521233224690123E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>0.35</v>
+      </c>
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+      <c r="F15">
+        <v>3198.2717479261355</v>
+      </c>
+      <c r="G15">
+        <v>22051.649944608704</v>
+      </c>
+      <c r="H15">
+        <v>0.63</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(D15,E15)</f>
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>5.2635035000000006</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>11731.714005716587</v>
+      </c>
+      <c r="P15">
+        <v>2745</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>36.761314500000005</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="2"/>
+        <v>3.1913205948379741E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>1691.6842777294887</v>
+      </c>
+      <c r="G16">
+        <v>6000</v>
+      </c>
+      <c r="H16">
+        <v>0.45</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J19" si="5">AVERAGE(D16,E16)</f>
+        <v>26.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>35.537030000000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>3607.159769818647</v>
+      </c>
+      <c r="P16">
+        <v>3530</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>319.17554000000001</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1301491868138288E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>1500</v>
+      </c>
+      <c r="F17">
+        <v>6000</v>
+      </c>
+      <c r="G17">
+        <v>76911.661151322129</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>775</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1039.2905000000001</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>37496.437777254898</v>
+      </c>
+      <c r="P17">
+        <v>7436</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>19663.014800000001</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9069526295253003E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>580.86364315386913</v>
+      </c>
+      <c r="G18">
+        <v>5300</v>
+      </c>
+      <c r="H18">
+        <v>0.54</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>91.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>122.70333000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>2942.2941929843073</v>
+      </c>
+      <c r="P18">
+        <v>4174</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>1303.114452</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2578939159707113E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>1500</v>
+      </c>
+      <c r="F19">
+        <v>5300</v>
+      </c>
+      <c r="G19">
+        <v>297736.10466011299</v>
+      </c>
+      <c r="H19">
+        <v>1.9</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1126.4568000000002</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>79155.070568115683</v>
+      </c>
+      <c r="P19">
+        <v>7436</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>21312.170880000001</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="2"/>
+        <v>3.7140782613749238E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="21">
+        <f>AVERAGE(N9:N19)</f>
+        <v>104273.88646517909</v>
+      </c>
+      <c r="P21" s="21">
+        <f>AVERAGE(P9:P19)</f>
+        <v>5267.181818181818</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21">
+        <f>AVERAGE(R9:R19)</f>
+        <v>22843.953167418182</v>
+      </c>
+      <c r="U21" s="9">
+        <f>AVERAGE(U9:U19)</f>
+        <v>4.8016954538032345E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N22" s="21">
+        <f>((N13+N15)/2)*(58.8/96.2)+(N14)*(26.4/96.2)+(N16)*(9.1/96.2)+((N10+N18)/2)*(1.8/96.2)+((N9+N11+N12+N17+N19)/5)*(0.1/96.2)</f>
+        <v>5568.4445739627981</v>
+      </c>
+      <c r="P22" s="21">
+        <f>((P13+P15)/2)*(58.8/96.2)+(P14)*(26.4/96.2)+(P16)*(9.1/96.2)+((P10+P18)/2)*(1.8/96.2)+((P9+P11+P12+P17+P19)/5)*(0.1/96.2)</f>
+        <v>3028.1517671517663</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21">
+        <f>((R13+R15)/2)*(58.8/96.2)+(R14)*(26.4/96.2)+(R16)*(9.1/96.2)+((R10+R18)/2)*(1.8/96.2)+((R9+R11+R12+R17+R19)/5)*(0.1/96.2)</f>
+        <v>145.53329397106029</v>
+      </c>
+      <c r="U22" s="12">
+        <f>((U13+U15)/2)*(58.8/96.2)+(U14)*(26.4/96.2)+(U16)*(9.1/96.2)+((U10+U18)/2)*(1.8/96.2)+((U9+U11+U12+U17+U19)/5)*(0.1/96.2)</f>
+        <v>1.4733459973606227E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U23" s="9"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="34">
+        <v>502</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="34">
+        <v>250</v>
+      </c>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="34">
+        <f>D28/1.341</f>
+        <v>186.42803877703207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2080</v>
+      </c>
+      <c r="E30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="34">
+        <f>D29*0.003412*D30</f>
+        <v>1323.0723340790455</v>
+      </c>
+      <c r="E31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="41">
+        <f>(D27*D29)/(D31*10^6)</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G27" r:id="rId1" xr:uid="{89D540DE-65F8-419E-8E02-FD08F0D4350B}"/>
+    <hyperlink ref="G28" r:id="rId2" xr:uid="{2BEBA02A-CA41-4A57-93D0-D9F4D2610A4F}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{098A2275-9E62-4836-8A3D-FE6E71782B1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC2D184-069E-47A4-BC3F-9F054759DD84}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(760,1000)</f>
+        <v>880</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(373.1,597)</f>
+        <v>485.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(975,1200)</f>
+        <v>1087.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(1492.5,2238.8)</f>
+        <v>1865.65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18">
+        <f>(D6)*(1.5*1000000)</f>
+        <v>1320000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19">
+        <f>(1.5*1000000)*(0.7*8760)</f>
+        <v>9198000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20">
+        <f>G19*3412</f>
+        <v>31383576000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21">
+        <f>G18/G20</f>
+        <v>4.2060216464815867E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22">
+        <f>(D7*(1.5*1000000))/G20</f>
+        <v>2.3183304541203336E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24">
+        <f>(D11)*(1.5*1000000)</f>
+        <v>1631250000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25">
+        <f>(1.5*1000000)*(0.7*8760)</f>
+        <v>9198000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26">
+        <f>G25*3412</f>
+        <v>31383576000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27">
+        <f>G24/G26</f>
+        <v>5.1977824324417333E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28">
+        <f>(D12*(1.5*1000000))/G26</f>
+        <v>8.9170048690436044E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="12">
+        <f>(G21*0.75)+(G27*0.25)</f>
+        <v>4.4539618429716232E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="9">
+        <f>G32*0.6</f>
+        <v>2.6723771057829738E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="9">
+        <f>(G22*0.75)+(G28*0.25)</f>
+        <v>3.9679990578511508E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5463D77-55A0-4A3F-A167-AF9495B144EE}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="39">
+        <f>2758*1.03</f>
+        <v>2840.7400000000002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <f>18*365</f>
+        <v>6570</v>
+      </c>
+      <c r="F5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7">
+        <f>E4*E5</f>
+        <v>118260</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8">
+        <f>E7*0.003412</f>
+        <v>403.50312000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="12">
+        <f>E3/(E8*10^6)</f>
+        <v>7.0401933942914745E-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="8">
+        <v>862500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="8">
+        <f>AVERAGE(B16,B17)</f>
+        <v>1181250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="32">
+        <v>8760</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="32">
+        <v>6051100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23">
+        <f>B20*B21</f>
+        <v>53007636000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B18/B23</f>
+        <v>2.2284525195577483E-5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{0EBADC85-7E7A-4D8B-B878-F45654EA16CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC78963D-3265-44FA-8138-35C2A57258D3}">
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="11" width="13.21875" customWidth="1"/>
+    <col min="2" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2114,31 +7425,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="12">
         <f>Boilers!$A$18</f>
-        <v>6.301329580541494E-6</v>
+        <v>5.6711966224873446E-5</v>
       </c>
       <c r="C2" s="12">
-        <f>Boilers!$G$44</f>
+        <f>Boilers!$G$43</f>
         <v>1.4986595988547842E-5</v>
       </c>
       <c r="D2" s="12">
-        <f>Boilers!A40</f>
-        <v>3.9618218239405674E-6</v>
+        <f>Boilers!A39</f>
+        <v>1.5989491110961776E-5</v>
       </c>
       <c r="E2" s="10">
         <f>C2</f>
         <v>1.4986595988547842E-5</v>
       </c>
       <c r="F2" s="12">
-        <f>Boilers!$G$45</f>
+        <f>Boilers!$G$44</f>
         <v>9.436004881678272E-6</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="40">
         <v>0</v>
       </c>
       <c r="H2" s="10">
@@ -2154,125 +7465,144 @@
         <v>9.436004881678272E-6</v>
       </c>
       <c r="K2" s="12">
-        <f>Boilers!A61</f>
-        <v>5.9427327359108515E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Boilers!A60</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="10">
+        <f>B2</f>
+        <v>5.6711966224873446E-5</v>
+      </c>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:K3" si="0">C2</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5989491110961776E-5</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="G3" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0</v>
-      </c>
-      <c r="F3" s="29">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H7" si="0">F3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.436004881678272E-6</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I7" si="1">F3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.436004881678272E-6</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J7" si="2">F3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="12">
+        <f>'NB Medium Temp'!D40</f>
+        <v>3.4771933032458345E-5</v>
+      </c>
+      <c r="C4" s="10">
+        <f>D4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'NB Medium Temp'!D41</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="E4" s="10">
+        <f>C4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="F4" s="10">
+        <f>D4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
       <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H4" si="1">F4</f>
+        <v>3.1780367029653324E-5</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="I4" si="2">F4</f>
+        <v>3.1780367029653324E-5</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J4" si="3">F4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="K4" s="10">
+        <f>D4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="12">
+        <f>'NB High Temp'!F10</f>
+        <v>1.7204637228083889E-4</v>
+      </c>
+      <c r="C5" s="12">
+        <f>'NB High Temp'!F45</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="D5" s="12">
+        <f>'NB High Temp'!F56</f>
+        <v>2.0725243194734525E-5</v>
+      </c>
+      <c r="E5" s="10">
+        <f>C5</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="F5" s="10">
+        <f>D5*(F2/D2)</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="G5" s="40">
         <v>0</v>
       </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
       <c r="H5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H5" si="4">F5</f>
+        <v>1.2230751723262388E-5</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="I5" si="5">F5</f>
+        <v>1.2230751723262388E-5</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J5" si="6">F5</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="K5" s="12">
+        <f>'NB High Temp'!F67</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2285,159 +7615,207 @@
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="D6" s="12">
-        <f>Cooling!B27</f>
+        <f>Cooling!$B$27</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:F6" si="3">$D$6</f>
+        <f t="shared" ref="E6:F6" si="7">$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8088159747275158E-5</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="40">
         <v>0</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" ref="H6:K6" si="4">$D$6</f>
+        <f t="shared" ref="H6:J6" si="8">$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" si="4"/>
-        <v>1.8088159747275158E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <f>$D$6*(K2/D2)</f>
+        <v>2.7132239620912736E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29">
-        <v>0</v>
+      <c r="B7" s="12">
+        <f>'Machine Drive'!$U$22</f>
+        <v>1.4733459973606227E-4</v>
       </c>
       <c r="C7" s="10">
         <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" ref="D7:E7" si="9">$F$7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="9"/>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="F7" s="12">
+        <f>'Machine Drive'!D32</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="G7" s="40">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" ref="D7:E9" si="5">$F$7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="29">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
       <c r="H7" s="10">
-        <f t="shared" ref="H7:K7" si="6">$F$7</f>
-        <v>0</v>
+        <f t="shared" ref="H7:K7" si="10">$F$7</f>
+        <v>7.0734511678239686E-5</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7.0734511678239686E-5</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7.0734511678239686E-5</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>7.0734511678239686E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="12">
+        <f>Electrochemical!$G32</f>
+        <v>4.4539618429716232E-5</v>
+      </c>
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="C8" s="24">
+      <c r="D8" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="E8" s="40">
         <v>0</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="40">
         <v>0</v>
       </c>
-      <c r="F8" s="24">
+      <c r="G8" s="40">
         <v>0</v>
       </c>
-      <c r="G8" s="24">
+      <c r="H8" s="40">
         <v>0</v>
       </c>
-      <c r="H8" s="24">
+      <c r="I8" s="40">
         <v>0</v>
       </c>
-      <c r="I8" s="24">
+      <c r="J8" s="40">
         <v>0</v>
       </c>
-      <c r="J8" s="24">
+      <c r="K8" s="40">
         <v>0</v>
       </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29">
-        <v>0</v>
-      </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
+      <c r="B9" s="12">
+        <f>Other!E9</f>
+        <v>7.0401933942914745E-6</v>
+      </c>
+      <c r="C9" s="10">
+        <f>D9*(C2/D2)</f>
+        <v>2.0886792055175448E-5</v>
+      </c>
+      <c r="D9" s="12">
+        <f>Other!B24</f>
+        <v>2.2284525195577483E-5</v>
       </c>
       <c r="E9" s="10">
         <f>C9</f>
+        <v>2.0886792055175448E-5</v>
+      </c>
+      <c r="F9" s="10">
+        <f>D9*(F2/D2)</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="G9" s="40">
         <v>0</v>
       </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
       <c r="H9" s="10">
-        <f t="shared" ref="H9" si="7">F9</f>
-        <v>0</v>
+        <f>F9</f>
+        <v>1.3150943145851209E-5</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" ref="I9" si="8">F9</f>
-        <v>0</v>
+        <f>F9</f>
+        <v>1.3150943145851209E-5</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" ref="J9" si="9">F9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <f>F9</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="K9" s="10">
+        <f>D9*(K2/D2)</f>
+        <v>3.3426787793366228E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3:J3 E3 D6" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c7ef1c8b-ba63-4702-8e74-5094387a97de}" enabled="0" method="" siteId="{c7ef1c8b-ba63-4702-8e74-5094387a97de}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
+++ b/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\IECCpUAEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B72A3-6F41-4DDD-9B94-91E2B66C39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0560A66-7556-4964-BE59-791368B78515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61935" yWindow="3045" windowWidth="21600" windowHeight="12525" activeTab="3" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
+    <workbookView xWindow="30285" yWindow="2355" windowWidth="26505" windowHeight="14175" firstSheet="2" activeTab="9" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Boilers" sheetId="3" r:id="rId2"/>
     <sheet name="Cooling" sheetId="4" r:id="rId3"/>
-    <sheet name="IECCpUAEU" sheetId="2" r:id="rId4"/>
+    <sheet name="NB Medium Temp" sheetId="9" r:id="rId4"/>
+    <sheet name="NB High Temp" sheetId="7" r:id="rId5"/>
+    <sheet name="Machine Drive" sheetId="5" r:id="rId6"/>
+    <sheet name="Electrochemical" sheetId="6" r:id="rId7"/>
+    <sheet name="Other" sheetId="10" r:id="rId8"/>
+    <sheet name="Aggregation" sheetId="11" r:id="rId9"/>
+    <sheet name="IECCpUAEU" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +44,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D998E602-6977-404A-8516-5F3163F500FA}</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{D998E602-6977-404A-8516-5F3163F500FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Left as original database, but I think it should be (small) not large, otherwise no difference in this and the next</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="391">
   <si>
     <t>IECCpUAEU Industrial Equipment Capital Cost per Unit Annual Energy Use</t>
   </si>
@@ -173,42 +197,6 @@
     <t>Natural gas boilers</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>Natural gas price ($/MMBtu)</t>
-  </si>
-  <si>
-    <t>Hourly fuel cost ($)</t>
-  </si>
-  <si>
-    <t>First-Year Total Cost ($)</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>First-Year cost is capital cost plus the first year of fuel costs.</t>
-  </si>
-  <si>
-    <t>First-Year Fuel Cost</t>
-  </si>
-  <si>
-    <t>First-Year Fuel Use (BTU)</t>
-  </si>
-  <si>
     <t>BTU</t>
   </si>
   <si>
@@ -218,27 +206,12 @@
     <t>$/(BTU/yr)</t>
   </si>
   <si>
-    <t>This represents the same boiler in different regions, so we should average the minimal differences in fuel use, which may be rounding error in NREL's values)</t>
-  </si>
-  <si>
     <t>Unit:  $/(BTU/yr) - dollars of capital cost for equipment per BTU consumed annually by that equipment</t>
   </si>
   <si>
     <t>Natural gas boiler costs</t>
   </si>
   <si>
-    <t>NREL</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy18osti/70485.pdf</t>
-  </si>
-  <si>
-    <t>Page 64, Table 17</t>
-  </si>
-  <si>
-    <t>Electrification Futures Study: End-Use Electric Technology Cost and Performance Projections through 2050</t>
-  </si>
-  <si>
     <t>Industrial fossil fuel boilers</t>
   </si>
   <si>
@@ -465,6 +438,826 @@
   </si>
   <si>
     <t>Florida Power &amp; Light</t>
+  </si>
+  <si>
+    <t>Electric motor: induction, squirrel cage, 3 phase, AC, TEFC, 1800 rpm excluding starter, gearing</t>
+  </si>
+  <si>
+    <t>Electric motor: induction, wound rotor, 3 phase, AC, open drip proof, 1800 rpm, excluding starter</t>
+  </si>
+  <si>
+    <t>Electric motor: synchronous, AC open drip proof, 1800 rpm excluding gears</t>
+  </si>
+  <si>
+    <t>Electric motor: synchronous, open drip proof, AC, 1200 rpm excluding gears</t>
+  </si>
+  <si>
+    <t>Electric motor: gear reduced TEFC, 1800 rpm plus gear reducer to give fixed output rpm</t>
+  </si>
+  <si>
+    <t>Electric motor: variable speed TEFC, 1800 rpm plus V-belt unit for speed control 2/1 to 5/1 at 3480, 520 and 30 rpm</t>
+  </si>
+  <si>
+    <t>kW (at 1800 rpm)</t>
+  </si>
+  <si>
+    <t>Drive: gear unit, general, single, double, triple reduction on concentric, offset or vertical right angle drives, excluding lubrication system and motor</t>
+  </si>
+  <si>
+    <t>kW (w/ reduction ratio)</t>
+  </si>
+  <si>
+    <t>Drive: gear unit, general, single, double, triple reduction on concentric, offset or vertical right angle drives, excluding lubrication system and motor (large)</t>
+  </si>
+  <si>
+    <t>Drive: gear unit, medium duty, single reduction 20/1 to 50/1 excluding lubrication system and motor (large)</t>
+  </si>
+  <si>
+    <t>Equipment Name</t>
+  </si>
+  <si>
+    <t>Scaling Unit</t>
+  </si>
+  <si>
+    <t>Min Scale</t>
+  </si>
+  <si>
+    <t>Max Scale</t>
+  </si>
+  <si>
+    <t>Min Cost</t>
+  </si>
+  <si>
+    <t>Max Cost</t>
+  </si>
+  <si>
+    <t>Scaling Factor</t>
+  </si>
+  <si>
+    <t>CEPCI</t>
+  </si>
+  <si>
+    <t>Equipment cost = minimum equipment cost * (desired equipment scale value / minimum equipment scale value)scaling factor * (current CEPCI / listed CEPCI); 2024 CPI is ~800</t>
+  </si>
+  <si>
+    <t>Equipment CapEx cost derived from the AssessCCUS's Capital Equipment Cost Database's equation, based on data from Woods 2007 (see sources in About):</t>
+  </si>
+  <si>
+    <t>$/BTU</t>
+  </si>
+  <si>
+    <t>Simple Average for electric motors/drive units:</t>
+  </si>
+  <si>
+    <t>Global CO2 Initiative at Uniiversity of Michigan</t>
+  </si>
+  <si>
+    <t>Assess CCUS Capital Equipment Cost Database</t>
+  </si>
+  <si>
+    <t>with additional data derived from their primary source:</t>
+  </si>
+  <si>
+    <t>Donald R. Woods</t>
+  </si>
+  <si>
+    <t>Appendix D of Rules of Thumb in Engineering</t>
+  </si>
+  <si>
+    <t>Information on a diesel engine and various electric motors and drives (Rows 144-155)</t>
+  </si>
+  <si>
+    <t>kW (scale average)</t>
+  </si>
+  <si>
+    <t>equiv. HP</t>
+  </si>
+  <si>
+    <t>Weighted Average for electric motors/drive units:</t>
+  </si>
+  <si>
+    <t>HP bins represented are 1-5, 6-20, 21-50,101-200,1000+. Not represented are 51-100 (2.9% of motor stock), 201-500 (0.7%), 501-1000 (0.2%). Weighted averages thus take % of motor inventory in a given HP bin and divide by 96.2%; weighted averages also average the values within a bin.</t>
+  </si>
+  <si>
+    <t>Operating hours, and percentage of motors in a given horsepower bin for calculating weighted averages,</t>
+  </si>
+  <si>
+    <t>The recent assessment did not have data disaggregated in the appropriate way to provide more recent values.</t>
+  </si>
+  <si>
+    <t>were obtained from the U.S. Industrial Electric Motor Systems Market Opportunities Assessment (2002).</t>
+  </si>
+  <si>
+    <t>U.S. Industrial Electric Motor Systems Market Opportunities Assessment (2002)</t>
+  </si>
+  <si>
+    <t>Annual Operating Hrs</t>
+  </si>
+  <si>
+    <t>The example gas diesel engine is assumed to be in operation the simple average annual operating hours (5267) of other motors/machine drives.</t>
+  </si>
+  <si>
+    <t>To derive Annual BTU, motor operating hours are based on the equivalent horsepower (HP) bin from the U.S. Industrial Electric Motor Systems Market Opportunities Assessment (2002).  kWh are converted to mmBTU with a conversion factor of 0.003412, then multiplied by annual operating hours.</t>
+  </si>
+  <si>
+    <t>Hydrogen Electrolyzers</t>
+  </si>
+  <si>
+    <t>Based on DoE "Pathways to Commercial Liftoff: Clean Hydrogen" p.13 CAPEX costs</t>
+  </si>
+  <si>
+    <t>Alkaline Water Electrolysis</t>
+  </si>
+  <si>
+    <t>$/kW</t>
+  </si>
+  <si>
+    <t>Proton Exchange Membrane Electrolyzer</t>
+  </si>
+  <si>
+    <t>DOE report cites potential penetrance of PEM of 25% of the U.S. market by 2030</t>
+  </si>
+  <si>
+    <t>U.S. Weighted CapEx/BTU/yr:</t>
+  </si>
+  <si>
+    <t>DOE Electrolyzer Capacity Example Case (p.88):</t>
+  </si>
+  <si>
+    <t>GW/yr</t>
+  </si>
+  <si>
+    <t>Average size</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Average total operating capacity (first 3 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield in kWh/year: </t>
+  </si>
+  <si>
+    <t>Yield in BTU/year</t>
+  </si>
+  <si>
+    <t>DOE projected capex cost reduction by 2030:</t>
+  </si>
+  <si>
+    <t>Capital expenditures  (U.S./Western markets)</t>
+  </si>
+  <si>
+    <t>Capital expenditures (U.S./Western markets):</t>
+  </si>
+  <si>
+    <t>Capital expenditures  (China):</t>
+  </si>
+  <si>
+    <t>$/BTU/yr (US)</t>
+  </si>
+  <si>
+    <t>Capex for AWE electrolyzer at 1.5 GW capacity (US):</t>
+  </si>
+  <si>
+    <t>Capex for PEM electrolyzer at 1.5 GW capacity (US):</t>
+  </si>
+  <si>
+    <t>$/BTU/yr (China)</t>
+  </si>
+  <si>
+    <t>China Data with US Weighted CapEx/BTU/yr:</t>
+  </si>
+  <si>
+    <t>Electrochemical</t>
+  </si>
+  <si>
+    <t>Data from the DOE's Pathways to Commercial Liftoff: Clean Hydrogen , 2023, p.13, p.88</t>
+  </si>
+  <si>
+    <t>Wang et al., 2023. "The multi-scenario projection of cost reduction in hydrogen production by proton exchange membrane (PEM) water electrolysis in the near future (2020–2060) of China." Fuel, Vol. 354</t>
+  </si>
+  <si>
+    <t>China capex numbers provided by:</t>
+  </si>
+  <si>
+    <t>China capex costs based on Wang et al. 2023</t>
+  </si>
+  <si>
+    <t>Electric Arc Furnace (Electric nonboiler high temp example)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapEx costs: </t>
+  </si>
+  <si>
+    <t>$/tonne</t>
+  </si>
+  <si>
+    <t>Energy expenditure/output:</t>
+  </si>
+  <si>
+    <t>kWh/tonne</t>
+  </si>
+  <si>
+    <t>Annual production capacity:</t>
+  </si>
+  <si>
+    <t>tonnes/year</t>
+  </si>
+  <si>
+    <t>kWh/year</t>
+  </si>
+  <si>
+    <t>Annual heat delivered/year (mmBTU):</t>
+  </si>
+  <si>
+    <t>Annual energy expenditure/year (kWh):</t>
+  </si>
+  <si>
+    <t>mmBTU/year</t>
+  </si>
+  <si>
+    <t>CapEx costs per annual yield:</t>
+  </si>
+  <si>
+    <t>$/year</t>
+  </si>
+  <si>
+    <t>$/BTU/year</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Paeng &amp; Azimi</t>
+  </si>
+  <si>
+    <t>Paeng &amp; Azimi 2024</t>
+  </si>
+  <si>
+    <t>130-180 tonnes per hour essentially means</t>
+  </si>
+  <si>
+    <t>Energy Transitions Commission</t>
+  </si>
+  <si>
+    <t>tonnes/year.</t>
+  </si>
+  <si>
+    <t>DIW Berlin 2024</t>
+  </si>
+  <si>
+    <t>Natural Gas-fueled Glass Melting Furnace (NG nonboiler high temp example)</t>
+  </si>
+  <si>
+    <t>Furnace capital cost</t>
+  </si>
+  <si>
+    <t>₤</t>
+  </si>
+  <si>
+    <t>Output rate</t>
+  </si>
+  <si>
+    <t>tonnes glass/day</t>
+  </si>
+  <si>
+    <t>Annual hours of operation (operates continuously):</t>
+  </si>
+  <si>
+    <t>hrs/year</t>
+  </si>
+  <si>
+    <t>Energy expenditure/output</t>
+  </si>
+  <si>
+    <t>Nonboiler High Temp</t>
+  </si>
+  <si>
+    <t>Capex costs per ton:</t>
+  </si>
+  <si>
+    <t>Deutsches Institut für Wirtschaftsforschung</t>
+  </si>
+  <si>
+    <t>"Revisiting Investment Costs for Green Steel: Capital Expenditures, Firm Level Impacts, and Policy Implications"</t>
+  </si>
+  <si>
+    <t>https://www.diw.de/documents/publikationen/73/diw_01.c.901039.de/dp2082.pdf</t>
+  </si>
+  <si>
+    <t>"Technoeconomic Analysis of the Electrorefining Process for Copper and Carbon Removal from Scrap Steel for Green Steelmaking"</t>
+  </si>
+  <si>
+    <t>Industrial &amp; Chemical Engineering Research</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.iecr.4c02665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual production capacity: </t>
+  </si>
+  <si>
+    <t>"Unlocking the first wave of breakthrough steel investments in France"</t>
+  </si>
+  <si>
+    <t>https://www.energy-transitions.org/wp-content/uploads/2023/03/Unlocking-the-First-Wave-of-Breakthrough-Steel-Investments-in-France-March-2022.pdf</t>
+  </si>
+  <si>
+    <t>Electric Example (EAF) References:</t>
+  </si>
+  <si>
+    <t>Natural Gas Example (NG Glass Melting Furnace) References:</t>
+  </si>
+  <si>
+    <t>Glass Technology Services Ltd.</t>
+  </si>
+  <si>
+    <t>"A Study of the Balance Between Furnace Operating Parameters and Recycled Glass in Melting Furnaces."</t>
+  </si>
+  <si>
+    <t>https:/www.glass-ts.com/site/assets/files/1015/2004_-_a_study_of_the_balance_between_furnace_operating_parameters_and_recycled_glass_in_glass_melting_furnaces.pdf</t>
+  </si>
+  <si>
+    <t>CapEx costs:</t>
+  </si>
+  <si>
+    <t>€/ton</t>
+  </si>
+  <si>
+    <t>Rechberger et al. 2020</t>
+  </si>
+  <si>
+    <t>Hydrogen-DR Plant (does not include EAF) (hydrogen high temp example)</t>
+  </si>
+  <si>
+    <t>kWh/ton</t>
+  </si>
+  <si>
+    <t>Vogl et al. 2018</t>
+  </si>
+  <si>
+    <t>tons/year</t>
+  </si>
+  <si>
+    <t>Kiln capital cost</t>
+  </si>
+  <si>
+    <t>GJ/tonne</t>
+  </si>
+  <si>
+    <t>Coal Example (Cement Kiln) References:</t>
+  </si>
+  <si>
+    <t>Vattenfall &amp; Cementa (Heidelberg Cement Group)</t>
+  </si>
+  <si>
+    <t>CemZero</t>
+  </si>
+  <si>
+    <t>Annual hours of operation:</t>
+  </si>
+  <si>
+    <t>hours/year</t>
+  </si>
+  <si>
+    <t>CemZero study</t>
+  </si>
+  <si>
+    <t>Average for rotary kiln, CemZero study</t>
+  </si>
+  <si>
+    <t>China Ruibin Information Network article</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>tons/day</t>
+  </si>
+  <si>
+    <t>Daily production capacity</t>
+  </si>
+  <si>
+    <t>includes conversion factor for GJ to kWh (1:277.778)</t>
+  </si>
+  <si>
+    <t>includes RMB to USD conversion (1:0.14)</t>
+  </si>
+  <si>
+    <t>$/Btu/year</t>
+  </si>
+  <si>
+    <t>Btu/year</t>
+  </si>
+  <si>
+    <t>Annual fuel use</t>
+  </si>
+  <si>
+    <t>Btu/hour</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Capital cost - mean</t>
+  </si>
+  <si>
+    <t>Capital cost - high</t>
+  </si>
+  <si>
+    <t>Capital cost - low</t>
+  </si>
+  <si>
+    <t>Natural Gas-Fired Distillation Columns</t>
+  </si>
+  <si>
+    <t>BTU/year</t>
+  </si>
+  <si>
+    <t>China Ruibin Information Network</t>
+  </si>
+  <si>
+    <t>"How much does it cost to build a rotary kiln with a daily output of 600 tons"</t>
+  </si>
+  <si>
+    <t>http://www.jixiemuye.com/en/business-2/article-364.html</t>
+  </si>
+  <si>
+    <t>DOE (EERE)</t>
+  </si>
+  <si>
+    <t>Energy Savings Potential and RD&amp;D Opportunities for Commercial Building Appliances (2015 Update)</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/sites/prod/files/2016/06/f32/DOE-BTO%20Comml%20Appl%20Report%20-%20Full%20Report_0.pdf</t>
+  </si>
+  <si>
+    <t>Natural gas-fired distillation columns</t>
+  </si>
+  <si>
+    <t>DOE (OSTI)</t>
+  </si>
+  <si>
+    <t>Distributive Distillation Enabled by Microchannel Process Technology</t>
+  </si>
+  <si>
+    <t>https://www.osti.gov/servlets/purl/1077001</t>
+  </si>
+  <si>
+    <t>Electric example (Infrared Heater for Processed Foods)</t>
+  </si>
+  <si>
+    <t>Energy expenditure:</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Based on 16-20 hour operation of food processing plants</t>
+  </si>
+  <si>
+    <t>Shadow Industrial Infrared model</t>
+  </si>
+  <si>
+    <t>Industrial infrared heater vendor</t>
+  </si>
+  <si>
+    <t>Gray cells are not applicable, either because the energy is already in the form of heat or because the equipmen type cannot use that fuel type.</t>
+  </si>
+  <si>
+    <t>Electric and gas-fired ovens</t>
+  </si>
+  <si>
+    <t>Based on a methanol/water separation column.</t>
+  </si>
+  <si>
+    <t>Gas Diesel Engine</t>
+  </si>
+  <si>
+    <t>Capital expenditures</t>
+  </si>
+  <si>
+    <t>Rockefeller Foundation: Electrifying Economies: Detailed Cost Models and Benchmarks</t>
+  </si>
+  <si>
+    <t>Representative engine bhp</t>
+  </si>
+  <si>
+    <t>bhp</t>
+  </si>
+  <si>
+    <t>EPA General Conformity Training Modules: Appendix A Sample Emissions Calculations</t>
+  </si>
+  <si>
+    <t>Representative engine kW</t>
+  </si>
+  <si>
+    <t>Representative annual operating hours</t>
+  </si>
+  <si>
+    <t>Mmbtu</t>
+  </si>
+  <si>
+    <t>Electric Motors</t>
+  </si>
+  <si>
+    <t>Remaining "Other Processes" cells use natural gas distillation column values modified by the ratios of capital costs for</t>
+  </si>
+  <si>
+    <t>boilers using each fuel type to boilers using natural gas.</t>
+  </si>
+  <si>
+    <t>Using a 400-horsepower boiler as our example:</t>
+  </si>
+  <si>
+    <t>water tube boiler</t>
+  </si>
+  <si>
+    <t>fire tube boiler</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>horsepower</t>
+  </si>
+  <si>
+    <t>kW / horsepower</t>
+  </si>
+  <si>
+    <t>annual energy consumption</t>
+  </si>
+  <si>
+    <t>State of Michigan</t>
+  </si>
+  <si>
+    <t>Miscellaneous Industrial Costs</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/-/media/Project/Websites/treasury/VOL/Vol236UIP12MiscellaneousIndustrialCosts.pdf?rev=b2a14a143c11493e8d0a30587afaa282</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>Cement plant (whole plant) capital cost per unit capacity</t>
+  </si>
+  <si>
+    <t>$/ton cement annual production capacity</t>
+  </si>
+  <si>
+    <t>GJ/day</t>
+  </si>
+  <si>
+    <t>GJ/year</t>
+  </si>
+  <si>
+    <t>$/(GJ/yr)</t>
+  </si>
+  <si>
+    <t>$/(kWh/yr)</t>
+  </si>
+  <si>
+    <t>Since these are Chinese prices, we double-checked using prices from Europe.  They come out about the same:</t>
+  </si>
+  <si>
+    <t>CapEx of cement kiln witout CCS</t>
+  </si>
+  <si>
+    <t>2014 euros / ton clinker (annual capacity)</t>
+  </si>
+  <si>
+    <t>Average share of clinker in cement (global average)</t>
+  </si>
+  <si>
+    <t>2014 euros / ton cement (annual capacity)</t>
+  </si>
+  <si>
+    <t>https://www.wri.org/insights/lower-carbon-blended-cement#:~:text=U.S.%20cement%20produces%20more%20emissions,is%20between%200.64%20and%200.76.</t>
+  </si>
+  <si>
+    <t>2014 USD / 2014 euro</t>
+  </si>
+  <si>
+    <t>2014 USD / ton cement (annual capacity)</t>
+  </si>
+  <si>
+    <t>2024 USD / 2014 USD</t>
+  </si>
+  <si>
+    <t>2024 USD / ton cement (annual capacity)</t>
+  </si>
+  <si>
+    <t>2024 USD / (GJ/yr)</t>
+  </si>
+  <si>
+    <t>kWh / GJ</t>
+  </si>
+  <si>
+    <t>USD / (kWh/yr)</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/330875028_Techno-economic_analysis_of_calcium_looping_processes_for_low_CO_2_emission_cement_plants</t>
+  </si>
+  <si>
+    <t>BTU / kWh</t>
+  </si>
+  <si>
+    <t>USD / (BTU/yr)</t>
+  </si>
+  <si>
+    <t>Europe cement kiln reference:</t>
+  </si>
+  <si>
+    <t>Edoardo De Lena et al.</t>
+  </si>
+  <si>
+    <t>Techno-economic analysis of calcium looping processes for low CO2 emission cement plants</t>
+  </si>
+  <si>
+    <t>Table 8, "Capex, Europ/ton clinker" row</t>
+  </si>
+  <si>
+    <t>Coal-fueled cement kiln</t>
+  </si>
+  <si>
+    <t>Machine Drive</t>
+  </si>
+  <si>
+    <t>Oven Type</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>deck</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>convection</t>
+  </si>
+  <si>
+    <t>conveyor</t>
+  </si>
+  <si>
+    <t>Commercial Oven Installed Base by Equipment Type</t>
+  </si>
+  <si>
+    <t>Installed Base</t>
+  </si>
+  <si>
+    <t>convection (1/2)</t>
+  </si>
+  <si>
+    <t>convection (full)</t>
+  </si>
+  <si>
+    <t>combiantion</t>
+  </si>
+  <si>
+    <t>rotary rack</t>
+  </si>
+  <si>
+    <t>rorary</t>
+  </si>
+  <si>
+    <t>cook &amp; hold</t>
+  </si>
+  <si>
+    <t>dough proofer</t>
+  </si>
+  <si>
+    <t>p. 42, table 2-8</t>
+  </si>
+  <si>
+    <t>Commercial oven installed base by fuel type</t>
+  </si>
+  <si>
+    <t>Fuel type</t>
+  </si>
+  <si>
+    <t>installed base</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Commercial oven capital cost breakdown by oven type</t>
+  </si>
+  <si>
+    <t>Average Cost</t>
+  </si>
+  <si>
+    <t>proofer</t>
+  </si>
+  <si>
+    <t>p. 44, table 2-10</t>
+  </si>
+  <si>
+    <t>p. 43, table 2-9</t>
+  </si>
+  <si>
+    <t>Commercial oven use characteristics</t>
+  </si>
+  <si>
+    <t>Operating Hrs/Yr</t>
+  </si>
+  <si>
+    <t>Capacity (btu/hr)</t>
+  </si>
+  <si>
+    <t>Capacity (kW)</t>
+  </si>
+  <si>
+    <t>p. 45, table 2-11</t>
+  </si>
+  <si>
+    <t>Calculated energy use by fuel type</t>
+  </si>
+  <si>
+    <t>Energy Use (btu/yr)</t>
+  </si>
+  <si>
+    <t>Weighted avg CapEx</t>
+  </si>
+  <si>
+    <t>CapEx/(BTU/yr)</t>
+  </si>
+  <si>
+    <t>For reference, not used in calculations above:</t>
+  </si>
+  <si>
+    <t>Commercial Ovens (used as our model for medium-temperature, non-boiler industrial heating equipment)</t>
+  </si>
+  <si>
+    <t>The operating hours per year reported in the table above are for commercial ovens.</t>
+  </si>
+  <si>
+    <t>We would expect an industrial facility to operate more hours per year than a commercial bakery.</t>
+  </si>
+  <si>
+    <t>For this reason, and for consistency across different industrial equipment categories in this spreadsheet,</t>
+  </si>
+  <si>
+    <t>we use the number of operating hours per year from the "Boilers" tab to also represent the operating hours</t>
+  </si>
+  <si>
+    <t>per year for medium-temperature industrial heating equipment.</t>
+  </si>
+  <si>
+    <t>Operating hours per year:</t>
+  </si>
+  <si>
+    <t>Adjustment to Operating Hours per Year</t>
+  </si>
+  <si>
+    <t>It seems reasonable that machine drive (light green) is more expensive than other end uses, given that it's producing rotational kinetic energy rather than heat or cooling.</t>
+  </si>
+  <si>
+    <t>fully commercialized, electrified, high-temperature heating equipment.  For instance, cement kilns burn coal and steam crackers use natural gas.  Other electrical furnaces</t>
+  </si>
+  <si>
+    <t>The data on electric arc furnaces (our model for electric high-temp heat) has been double-checked and seem solid, and there are few other good examples of</t>
+  </si>
+  <si>
+    <t>exist (like induction furnaces), but electric arc furnaces are likely the most common type and are likely the best choice to use as our model equipment type for high-temp</t>
+  </si>
+  <si>
+    <t>electrified industrial heating equipment. So we do not consider them to bean outlier - i.e., the higher cost is justified.</t>
+  </si>
+  <si>
+    <t>Note: since the CapEx here scales with tonnes capacity, the final cost per unit capacity isn't affected by the annual production capacity figure above.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not used</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because it is the whole plant, not just the kiln.  Kiln-only data are just below.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -474,17 +1267,10 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +1311,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,14 +1372,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -581,34 +1430,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,30 +1465,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,6 +1529,1858 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Capital Cost of Equipment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per Unit Annual Energy Consumption</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boilers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6711966224873446E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5989491110961776E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3984236666442662E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonboiler low temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6711966224873446E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5989491110961776E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4986595988547842E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.436004881678272E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3984236666442662E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonboiler med temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4771933032458345E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1780367029653324E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonboiler high temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7204637228083889E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5951806950193628E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0725243194734525E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5951806950193628E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2230751723262388E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.265784625690839E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4520366169683022E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8088159747275158E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7132239620912736E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>machine drive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4733459973606227E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0734511678239686E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>electrochemical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>4.4539618429716232E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Aggregation!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregation!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>electricity if</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hard coal if</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>natural gas if</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>biomass if</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>petroleum diesel if</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>heat if</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>crude oil if</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>heavy or residual fuel oil if</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LPG propane or butane if</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hydrogen if</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregation!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0401933942914745E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0886792055175448E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2284525195577483E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0886792055175448E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3150943145851209E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3426787793366228E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B40A-4983-AC41-514CE06597B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1076970720"/>
+        <c:axId val="1076972160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1076970720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076972160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1076972160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076970720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D8A9BC-1347-1F10-1397-4A45F58C402B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8726805" y="22006560"/>
+          <a:ext cx="8143875" cy="2545080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>120400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950AD3EF-C451-057E-3713-FD08E757AEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="22075140"/>
+          <a:ext cx="7991475" cy="2429260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D30BA75-2EF9-4954-A89F-FC69610FF4EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Nik Anil Sawe" id="{04DE444D-9D1B-4089-AFE5-A6D692FB4808}" userId="S::sawe@stanford.edu::1fed2c22-145d-47f5-8d2a-b4e45e4e3b03" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,13 +3698,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B18" dT="2025-01-03T22:48:32.17" personId="{04DE444D-9D1B-4089-AFE5-A6D692FB4808}" id="{D998E602-6977-404A-8516-5F3163F500FA}">
+    <text>Left as original database, but I think it should be (small) not large, otherwise no difference in this and the next</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3CA314-6128-4FC9-9CED-BF85AF9DB226}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="76.453125" customWidth="1"/>
   </cols>
@@ -1045,42 +3782,42 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="13">
-        <v>2017</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>63</v>
+      <c r="B20" s="15" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
@@ -1090,27 +3827,27 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
@@ -1120,82 +3857,861 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="38">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="38">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B64" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="35"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="36">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B78" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="37"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="36">
+        <v>38231</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B101" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B102" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="36"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{C08BA00C-5E72-42AD-BB8F-655D467C5298}"/>
+    <hyperlink ref="B105" r:id="rId2" xr:uid="{810625CC-59B0-4E09-BD8A-7942EF52112A}"/>
+    <hyperlink ref="B106" r:id="rId3" xr:uid="{DE5DC99A-D169-4E5D-98F4-A0C74D220DA2}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{EC39133E-2B1E-4926-9BAB-A0BC92F6703D}"/>
+    <hyperlink ref="B117" r:id="rId5" xr:uid="{5CBB2DBF-381E-4F40-8899-29D4B5FC9B35}"/>
+    <hyperlink ref="B135" r:id="rId6" display="Data from the DOE's Pathways to Commercial Liftoff: Clean Hydrogen (p.13, p.88)" xr:uid="{451B96CC-C781-4216-8C03-8132EE3013B2}"/>
+    <hyperlink ref="B138" r:id="rId7" xr:uid="{8276223D-26B3-43EA-A781-2BDC0C41D374}"/>
+    <hyperlink ref="B65" r:id="rId8" xr:uid="{C723E247-B6C1-46C7-B576-CF146861E8AC}"/>
+    <hyperlink ref="B72" r:id="rId9" xr:uid="{BA83290A-C082-4AAB-AFC4-39DE2DEA36E6}"/>
+    <hyperlink ref="B78" r:id="rId10" xr:uid="{437DE8DA-77A2-48D0-8792-6CEB29629218}"/>
+    <hyperlink ref="B102" r:id="rId11" xr:uid="{8C5AD67E-D9AA-4BD2-BE55-FC759DD68FCE}"/>
+    <hyperlink ref="B83" r:id="rId12" xr:uid="{D30485F8-6CEE-4196-A36A-BE4A2803E3DD}"/>
+    <hyperlink ref="B51" r:id="rId13" xr:uid="{07F897CB-7353-674E-92F0-010511F2EA56}"/>
+    <hyperlink ref="B57" r:id="rId14" xr:uid="{D0781D44-31AC-BC44-B7B2-E83275B62102}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{27F2C98F-DA26-4901-A0EB-6AC6A38F1C0C}"/>
+    <hyperlink ref="B94" r:id="rId16" xr:uid="{561EFB21-D77A-400A-A718-A022D22539BB}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC78963D-3265-44FA-8138-35C2A57258D3}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f>Aggregation!A1</f>
+        <v>Unit:  $/(BTU/yr) - dollars of capital cost for equipment per BTU consumed annually by that equipment</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Aggregation!B1</f>
+        <v>electricity if</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Aggregation!C1</f>
+        <v>hard coal if</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Aggregation!D1</f>
+        <v>natural gas if</v>
+      </c>
+      <c r="E1" t="str">
+        <f>Aggregation!E1</f>
+        <v>biomass if</v>
+      </c>
+      <c r="F1" t="str">
+        <f>Aggregation!F1</f>
+        <v>petroleum diesel if</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Aggregation!G1</f>
+        <v>heat if</v>
+      </c>
+      <c r="H1" t="str">
+        <f>Aggregation!H1</f>
+        <v>crude oil if</v>
+      </c>
+      <c r="I1" t="str">
+        <f>Aggregation!I1</f>
+        <v>heavy or residual fuel oil if</v>
+      </c>
+      <c r="J1" t="str">
+        <f>Aggregation!J1</f>
+        <v>LPG propane or butane if</v>
+      </c>
+      <c r="K1" t="str">
+        <f>Aggregation!K1</f>
+        <v>hydrogen if</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>Aggregation!A2</f>
+        <v>boilers</v>
+      </c>
+      <c r="B2">
+        <f>Aggregation!B2</f>
+        <v>5.6711966224873446E-5</v>
+      </c>
+      <c r="C2">
+        <f>Aggregation!C2</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="D2">
+        <f>Aggregation!D2</f>
+        <v>1.5989491110961776E-5</v>
+      </c>
+      <c r="E2">
+        <f>Aggregation!E2</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="F2">
+        <f>Aggregation!F2</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="G2">
+        <f>Aggregation!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>Aggregation!H2</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="I2">
+        <f>Aggregation!I2</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="J2">
+        <f>Aggregation!J2</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="K2">
+        <f>Aggregation!K2</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>Aggregation!A3</f>
+        <v>nonboiler low temp</v>
+      </c>
+      <c r="B3">
+        <f>Aggregation!B3</f>
+        <v>5.6711966224873446E-5</v>
+      </c>
+      <c r="C3">
+        <f>Aggregation!C3</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="D3">
+        <f>Aggregation!D3</f>
+        <v>1.5989491110961776E-5</v>
+      </c>
+      <c r="E3">
+        <f>Aggregation!E3</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="F3">
+        <f>Aggregation!F3</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="G3">
+        <f>Aggregation!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>Aggregation!H3</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="I3">
+        <f>Aggregation!I3</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="J3">
+        <f>Aggregation!J3</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="K3">
+        <f>Aggregation!K3</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>Aggregation!A4</f>
+        <v>nonboiler med temp</v>
+      </c>
+      <c r="B4">
+        <f>Aggregation!B4</f>
+        <v>3.4771933032458345E-5</v>
+      </c>
+      <c r="C4">
+        <f>Aggregation!C4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="D4">
+        <f>Aggregation!D4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="E4">
+        <f>Aggregation!E4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="F4">
+        <f>Aggregation!F4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="G4">
+        <f>Aggregation!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>Aggregation!H4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="I4">
+        <f>Aggregation!I4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="J4">
+        <f>Aggregation!J4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="K4">
+        <f>Aggregation!K4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>Aggregation!A5</f>
+        <v>nonboiler high temp</v>
+      </c>
+      <c r="B5">
+        <f>Aggregation!B5</f>
+        <v>1.7204637228083889E-4</v>
+      </c>
+      <c r="C5">
+        <f>Aggregation!C5</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="D5">
+        <f>Aggregation!D5</f>
+        <v>2.0725243194734525E-5</v>
+      </c>
+      <c r="E5">
+        <f>Aggregation!E5</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="F5">
+        <f>Aggregation!F5</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="G5">
+        <f>Aggregation!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>Aggregation!H5</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="I5">
+        <f>Aggregation!I5</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="J5">
+        <f>Aggregation!J5</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="K5">
+        <f>Aggregation!K5</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>Aggregation!A6</f>
+        <v>cooling</v>
+      </c>
+      <c r="B6">
+        <f>Aggregation!B6</f>
+        <v>4.4520366169683022E-5</v>
+      </c>
+      <c r="C6">
+        <f>Aggregation!C6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="D6">
+        <f>Aggregation!D6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="E6">
+        <f>Aggregation!E6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="F6">
+        <f>Aggregation!F6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="G6">
+        <f>Aggregation!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>Aggregation!H6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="I6">
+        <f>Aggregation!I6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="J6">
+        <f>Aggregation!J6</f>
+        <v>1.8088159747275158E-5</v>
+      </c>
+      <c r="K6">
+        <f>Aggregation!K6</f>
+        <v>2.7132239620912736E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>Aggregation!A7</f>
+        <v>machine drive</v>
+      </c>
+      <c r="B7">
+        <f>Aggregation!B7</f>
+        <v>1.4733459973606227E-4</v>
+      </c>
+      <c r="C7">
+        <f>Aggregation!C7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="D7">
+        <f>Aggregation!D7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="E7">
+        <f>Aggregation!E7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="F7">
+        <f>Aggregation!F7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="G7">
+        <f>Aggregation!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>Aggregation!H7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="I7">
+        <f>Aggregation!I7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="J7">
+        <f>Aggregation!J7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="K7">
+        <f>Aggregation!K7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>Aggregation!A8</f>
+        <v>electrochemical</v>
+      </c>
+      <c r="B8">
+        <f>Aggregation!B8</f>
+        <v>4.4539618429716232E-5</v>
+      </c>
+      <c r="C8">
+        <f>Aggregation!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>Aggregation!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>Aggregation!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>Aggregation!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Aggregation!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>Aggregation!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>Aggregation!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>Aggregation!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>Aggregation!K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>Aggregation!A9</f>
+        <v>other processes</v>
+      </c>
+      <c r="B9">
+        <f>Aggregation!B9</f>
+        <v>7.0401933942914745E-6</v>
+      </c>
+      <c r="C9">
+        <f>Aggregation!C9</f>
+        <v>2.0886792055175448E-5</v>
+      </c>
+      <c r="D9">
+        <f>Aggregation!D9</f>
+        <v>2.2284525195577483E-5</v>
+      </c>
+      <c r="E9">
+        <f>Aggregation!E9</f>
+        <v>2.0886792055175448E-5</v>
+      </c>
+      <c r="F9">
+        <f>Aggregation!F9</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="G9">
+        <f>Aggregation!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>Aggregation!H9</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="I9">
+        <f>Aggregation!I9</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="J9">
+        <f>Aggregation!J9</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="K9">
+        <f>Aggregation!K9</f>
+        <v>3.3426787793366228E-5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78C19FD-7E25-465C-BF9B-84ECCFD8C3AD}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.453125" customWidth="1"/>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1207,13 +4723,13 @@
       <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>96</v>
+      <c r="A2" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>97</v>
+      <c r="A3" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1325,11 +4841,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
-        <f>D9/A15</f>
-        <v>6.301329580541494E-6</v>
+        <f>D9*A15</f>
+        <v>5.6711966224873446E-5</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,373 +4857,305 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C23">
-        <v>5.37</v>
-      </c>
-      <c r="D23">
-        <v>22.47</v>
-      </c>
-      <c r="E23">
-        <v>206190</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="B24" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C24">
-        <v>7.87</v>
-      </c>
-      <c r="D24">
-        <v>32.93</v>
-      </c>
-      <c r="E24">
-        <v>261399</v>
+        <v>80375</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="B25" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C25">
-        <v>3.8</v>
-      </c>
-      <c r="D25">
-        <v>15.91</v>
-      </c>
-      <c r="E25">
-        <v>171567</v>
+        <v>91475</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="B26" s="8">
-        <v>87540</v>
-      </c>
-      <c r="C26">
-        <v>6.2</v>
-      </c>
-      <c r="D26">
-        <v>25.94</v>
-      </c>
-      <c r="E26">
-        <v>224501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
+        <f>AVERAGE(B24:B25)</f>
+        <v>85925</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="25">
-        <v>5280</v>
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>306</v>
+      </c>
+      <c r="B29">
+        <v>0.74570000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <f>B28*B29</f>
+        <v>298.28000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="21">
-        <f>D23*$B$28</f>
-        <v>118641.59999999999</v>
-      </c>
-      <c r="C32" s="23">
-        <f>B32/C23*10^6</f>
-        <v>22093407821.22905</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="21">
-        <f t="shared" ref="B33:B35" si="1">D24*$B$28</f>
-        <v>173870.4</v>
-      </c>
-      <c r="C33" s="23">
-        <f>B33/C24*10^6</f>
-        <v>22092808132.147396</v>
+      <c r="A32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="22">
+        <v>5280</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="21">
-        <f t="shared" si="1"/>
-        <v>84004.800000000003</v>
-      </c>
-      <c r="C34" s="23">
-        <f>B34/C25*10^6</f>
-        <v>22106526315.789478</v>
+        <v>307</v>
+      </c>
+      <c r="B34">
+        <f>B30*B32</f>
+        <v>1574918.4000000001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="21">
-        <f t="shared" si="1"/>
-        <v>136963.20000000001</v>
-      </c>
-      <c r="C35" s="23">
-        <f>B35/C26*10^6</f>
-        <v>22090838709.677422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>3412.14</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36">
+        <f>B34*B35</f>
+        <v>5373842069.3760004</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
-        <f>AVERAGE(B23:B26)/AVERAGE(C32:C35)</f>
-        <v>3.9618218239405674E-6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="A39" s="12">
+        <f>B26/B36</f>
+        <v>1.5989491110961776E-5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="G42" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>95</v>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>2000</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="D43">
+        <f>B43*C43</f>
+        <v>600000</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <f>$B$50/E43</f>
+        <v>40035776000</v>
+      </c>
+      <c r="G43" s="12">
+        <f>D43/F43</f>
+        <v>1.4986595988547842E-5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>2000</v>
       </c>
       <c r="C44">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D44">
-        <f>B44*C44</f>
-        <v>600000</v>
+        <f t="shared" ref="D44:D45" si="1">B44*C44</f>
+        <v>400000</v>
       </c>
       <c r="E44" s="19">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F44">
-        <f>$B$51/E44</f>
-        <v>40035776000</v>
+        <f t="shared" ref="F44:F45" si="2">$B$50/E44</f>
+        <v>42390821647.058823</v>
       </c>
       <c r="G44" s="12">
-        <f>D44/F44</f>
-        <v>1.4986595988547842E-5</v>
+        <f t="shared" ref="G44:G45" si="3">D44/F44</f>
+        <v>9.436004881678272E-6</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>2000</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45:D46" si="2">B45*C45</f>
-        <v>400000</v>
+        <f t="shared" si="1"/>
+        <v>200000</v>
       </c>
       <c r="E45" s="19">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F46" si="3">$B$51/E45</f>
-        <v>42390821647.058823</v>
-      </c>
-      <c r="G45" s="12">
-        <f t="shared" ref="G45:G46" si="4">D45/F45</f>
-        <v>9.436004881678272E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46">
-        <v>2000</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="E46" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="F46">
+        <v>37928629894.736847</v>
+      </c>
+      <c r="G45" s="9">
         <f t="shared" si="3"/>
-        <v>37928629894.736847</v>
-      </c>
-      <c r="G46" s="9">
-        <f t="shared" si="4"/>
         <v>5.2730615515260925E-6</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <f>B43*B32</f>
+        <v>10560000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <f>B44*B28</f>
-        <v>10560000</v>
+        <v>3412.14</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50">
-        <v>3412.14</v>
+        <f>B48*B49</f>
+        <v>36032198400</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51">
-        <f>B49*B50</f>
-        <v>36032198400</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
-        <f>A40*1.5</f>
-        <v>5.9427327359108515E-6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="B58" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="12">
+        <f>A39*1.5</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1721,338 +5169,338 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="1" max="1" width="53.26953125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8">
         <v>307500</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>4000</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8">
         <v>75863</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8">
         <v>6226</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="29">
+        <v>89</v>
+      </c>
+      <c r="B11" s="25">
         <v>0.45</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="29">
+        <v>91</v>
+      </c>
+      <c r="B12" s="25">
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="23">
+        <v>93</v>
+      </c>
+      <c r="B14" s="21">
         <f>B8/B11</f>
         <v>168584.44444444444</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="23">
+        <v>95</v>
+      </c>
+      <c r="B15" s="21">
         <f>B9/B12</f>
         <v>41506.666666666672</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>100000</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>3412.14</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B20" s="9">
         <f>B14*B17</f>
         <v>16858444444.444445</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B21" s="9">
         <f>B15*B18</f>
         <v>141626557.60000002</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B26" s="9">
         <f>SUM(B20:B21)</f>
         <v>17000071002.044445</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B27" s="12">
         <f>B5/B26</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B32" s="8">
         <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B33" s="8">
         <v>500</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B34" s="8">
         <f>AVERAGE(B32:B33)</f>
         <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B38" s="8">
         <f>B34*B36</f>
         <v>175000</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B41">
         <v>0.57599999999999996</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <f>B41*B36</f>
         <v>288</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <f>B6</f>
         <v>4000</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <f>B42*B44</f>
         <v>1152000</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B47" s="9">
         <f>B46*B18</f>
         <v>3930785280</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B49" s="12">
         <f>B38/B47</f>
         <v>4.4520366169683022E-5</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2061,23 +5509,2324 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC78963D-3265-44FA-8138-35C2A57258D3}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F9C022-A310-4BEE-BA08-E19CC60071F1}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5">
+        <v>492000</v>
+      </c>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6">
+        <v>135000</v>
+      </c>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>474000</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8">
+        <v>70000</v>
+      </c>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9">
+        <v>22000</v>
+      </c>
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10">
+        <v>18000</v>
+      </c>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11">
+        <v>216000</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12">
+        <v>51000</v>
+      </c>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13">
+        <v>125000</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="20">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="20">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="20">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23">
+        <v>4380</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24">
+        <v>4380</v>
+      </c>
+      <c r="C24">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="1">
+        <f>Boilers!B32</f>
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="47">
+        <v>3412.14</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40">
+        <f>$B$33*D23*B36</f>
+        <v>270241488</v>
+      </c>
+      <c r="C40" s="25">
+        <f>($B$17*$B$5+$B$18*SUM($B$6:$B$7)+$B$19*$B$13)/SUM($B$5:$B$7,$B$13)</f>
+        <v>9396.8189233278954</v>
+      </c>
+      <c r="D40" s="12">
+        <f>C40/B40</f>
+        <v>3.4771933032458345E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41">
+        <f>$B$33*C24</f>
+        <v>295680000</v>
+      </c>
+      <c r="C41" s="25">
+        <f>($B$17*$B$5+$B$18*SUM($B$6:$B$7)+$B$19*$B$13)/SUM($B$5:$B$7,$B$13)</f>
+        <v>9396.8189233278954</v>
+      </c>
+      <c r="D41" s="12">
+        <f>C41/B41</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53">
+        <v>722000</v>
+      </c>
+      <c r="C53" s="44">
+        <f>B53/SUM($B$53:$B$54)</f>
+        <v>0.45012468827930174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54">
+        <v>882000</v>
+      </c>
+      <c r="C54" s="44">
+        <f>B54/SUM($B$53:$B$54)</f>
+        <v>0.54987531172069826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463E7825-E51A-4EE8-BEA7-048823A51DEE}">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="F3" s="25">
+        <f>254*1.04</f>
+        <v>264.16000000000003</v>
+      </c>
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="F5" s="32">
+        <v>800000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7">
+        <f>F4*F5</f>
+        <v>360000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8">
+        <f>F7*0.003412</f>
+        <v>1228320</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="25">
+        <f>F3*F5</f>
+        <v>211328000.00000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="12">
+        <f>F9/(F8*10^6)</f>
+        <v>1.7204637228083889E-4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12">
+        <f>8760*155</f>
+        <v>1357800</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="20">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F17" s="39">
+        <f>F16/F23</f>
+        <v>26.356589147286826</v>
+      </c>
+      <c r="G17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F18" s="39">
+        <f>F17/277.778</f>
+        <v>9.4883645023316546E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F19" s="9">
+        <f>F18/3412</f>
+        <v>2.7808805692648461E-5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21">
+        <v>36000000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="20">
+        <f>F21*0.14</f>
+        <v>5040000.0000000009</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(5.1,7.8)</f>
+        <v>6.4499999999999993</v>
+      </c>
+      <c r="G23" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24">
+        <v>8000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25">
+        <v>600</v>
+      </c>
+      <c r="G25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f>F23*F25</f>
+        <v>3869.9999999999995</v>
+      </c>
+      <c r="G26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f>F26*(F24/24)</f>
+        <v>1289999.9999999998</v>
+      </c>
+      <c r="G27" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28">
+        <f>F27*277.778</f>
+        <v>358333619.99999994</v>
+      </c>
+      <c r="G28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29">
+        <f>F28*0.003412</f>
+        <v>1222634.3114399998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="12">
+        <f>(F21*0.14)/(F29*10^6)</f>
+        <v>4.1222464909102436E-6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34">
+        <v>21.08</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35">
+        <v>0.76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="34">
+        <f>F34*F35</f>
+        <v>16.020799999999998</v>
+      </c>
+      <c r="G36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>1.3284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F38" s="34">
+        <f>F36*F37</f>
+        <v>21.282030719999998</v>
+      </c>
+      <c r="G38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>1.32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F40" s="34">
+        <f>F38*F39</f>
+        <v>28.092280550399998</v>
+      </c>
+      <c r="G40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F41" s="34">
+        <f>F40/F23</f>
+        <v>4.3553923333953488</v>
+      </c>
+      <c r="G41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>277.77800000000002</v>
+      </c>
+      <c r="G42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f>F41/F42</f>
+        <v>1.5679399856703368E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>3412.14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F45" s="12">
+        <f>F43/F44</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="32">
+        <v>6000000</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50">
+        <v>300</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51">
+        <v>8760</v>
+      </c>
+      <c r="G51" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52">
+        <v>1100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54">
+        <f>(F3*365)*F52</f>
+        <v>106060240.00000001</v>
+      </c>
+      <c r="G54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="34">
+        <f>F54*0.003412</f>
+        <v>361877.53888000007</v>
+      </c>
+      <c r="G55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="12">
+        <f>(F49*1.25)/(F55*10^6)</f>
+        <v>2.0725243194734525E-5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60">
+        <f>574-184</f>
+        <v>390</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61">
+        <v>3500</v>
+      </c>
+      <c r="G61" t="s">
+        <v>242</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="32">
+        <v>1500000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64">
+        <f>F61*F62</f>
+        <v>5250000000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65">
+        <f>F64*0.003412</f>
+        <v>17913000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="25">
+        <f>F60*F62</f>
+        <v>585000000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="12">
+        <f>F66/(F65*10^6)</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{74C988DB-76D8-4145-BBE1-D4D23B225EB8}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{AE3C2C77-DEE7-417F-A91D-8588011B2FE4}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{094BE59D-41E3-4FD7-9FDF-AC064CEA0F0D}"/>
+    <hyperlink ref="I49" r:id="rId4" xr:uid="{846023E9-701C-4DCB-AFF8-68371AA5EAAB}"/>
+    <hyperlink ref="I50:I52" r:id="rId5" display="Glass Technology Services Ltd." xr:uid="{22C9B764-C975-4832-A877-CAEDEFC86ABD}"/>
+    <hyperlink ref="I61" r:id="rId6" xr:uid="{B9C4C936-222A-415A-93F7-C04647B8A8F8}"/>
+    <hyperlink ref="I62" r:id="rId7" xr:uid="{91898801-3109-4817-A332-119D9BDB6683}"/>
+    <hyperlink ref="I24" r:id="rId8" xr:uid="{B56B537F-0535-4F1F-BD10-6F95D26F1CF9}"/>
+    <hyperlink ref="I21" r:id="rId9" xr:uid="{F4D113B3-6174-475B-B0C2-A087D85EE29B}"/>
+    <hyperlink ref="I25" r:id="rId10" xr:uid="{E4FAB926-5227-415A-85B9-0833AFE81296}"/>
+    <hyperlink ref="I35" r:id="rId11" location=":~:text=U.S.%20cement%20produces%20more%20emissions,is%20between%200.64%20and%200.76." xr:uid="{D3609DDD-82DB-4DD7-9D57-0F7BC42F9A76}"/>
+    <hyperlink ref="I34" r:id="rId12" xr:uid="{1BA8B66B-9A20-4E0A-9B55-7DB08D6E8435}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8383B1-B2B0-41DD-8BAC-656486EFD613}">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.4">
+      <c r="B8" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>1500</v>
+      </c>
+      <c r="F9">
+        <v>43.754184261800326</v>
+      </c>
+      <c r="G9">
+        <v>512727.48211595422</v>
+      </c>
+      <c r="H9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J14" si="0">AVERAGE(D9,E9)</f>
+        <v>750.15</v>
+      </c>
+      <c r="L9">
+        <f>J9*1.34102</f>
+        <v>1005.9661530000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N19" si="1">F9*(((D9+E9)/2)/D9)^H9*(800/I9)</f>
+        <v>191398.76147944329</v>
+      </c>
+      <c r="P9">
+        <v>7436</v>
+      </c>
+      <c r="R9">
+        <f>J9*0.003412*P9</f>
+        <v>19032.529744800002</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" ref="U9:U19" si="2">N9/(R9*10^6)</f>
+        <v>1.005640154229821E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>1455.1962633016838</v>
+      </c>
+      <c r="G10">
+        <v>22223.515169375642</v>
+      </c>
+      <c r="H10">
+        <v>0.93</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L19" si="3">J10*1.34102</f>
+        <v>105.94058000000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9793.3452423684339</v>
+      </c>
+      <c r="P10">
+        <v>4174</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R19" si="4">J10*0.003412*P10</f>
+        <v>1125.0933520000001</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="2"/>
+        <v>8.7044734776536431E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>7000</v>
+      </c>
+      <c r="F11">
+        <v>64088.852077797135</v>
+      </c>
+      <c r="G11">
+        <v>1137028.3379406705</v>
+      </c>
+      <c r="H11">
+        <v>0.96</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>3675</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>4928.2485000000006</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>490020.45239808032</v>
+      </c>
+      <c r="P11">
+        <v>7436</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>93240.747600000002</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="2"/>
+        <v>5.2554324692917872E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>7000</v>
+      </c>
+      <c r="F12">
+        <v>77307.967291430425</v>
+      </c>
+      <c r="G12">
+        <v>655523.04372978187</v>
+      </c>
+      <c r="H12">
+        <v>0.81</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>5028.8250000000007</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>316310.68638940249</v>
+      </c>
+      <c r="P12">
+        <v>7436</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>95143.62</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3245601374995242E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>0.35</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>1297.2736980632467</v>
+      </c>
+      <c r="G13">
+        <v>1800</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.075</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1.4415964999999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1298.941773935192</v>
+      </c>
+      <c r="P13">
+        <v>2745</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>10.0683855</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.290119229081159E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14">
+        <v>1.8</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>1800</v>
+      </c>
+      <c r="G14">
+        <v>5537.4069913635094</v>
+      </c>
+      <c r="H14">
+        <v>0.53</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>11.264568000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>3257.8875198502201</v>
+      </c>
+      <c r="P14">
+        <v>3391</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>97.18877280000001</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3521233224690123E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>0.35</v>
+      </c>
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+      <c r="F15">
+        <v>3198.2717479261355</v>
+      </c>
+      <c r="G15">
+        <v>22051.649944608704</v>
+      </c>
+      <c r="H15">
+        <v>0.63</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(D15,E15)</f>
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>5.2635035000000006</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>11731.714005716587</v>
+      </c>
+      <c r="P15">
+        <v>2745</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>36.761314500000005</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="2"/>
+        <v>3.1913205948379741E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>1691.6842777294887</v>
+      </c>
+      <c r="G16">
+        <v>6000</v>
+      </c>
+      <c r="H16">
+        <v>0.45</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J19" si="5">AVERAGE(D16,E16)</f>
+        <v>26.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>35.537030000000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>3607.159769818647</v>
+      </c>
+      <c r="P16">
+        <v>3530</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>319.17554000000001</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1301491868138288E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>1500</v>
+      </c>
+      <c r="F17">
+        <v>6000</v>
+      </c>
+      <c r="G17">
+        <v>76911.661151322129</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>775</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1039.2905000000001</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>37496.437777254898</v>
+      </c>
+      <c r="P17">
+        <v>7436</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>19663.014800000001</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9069526295253003E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>580.86364315386913</v>
+      </c>
+      <c r="G18">
+        <v>5300</v>
+      </c>
+      <c r="H18">
+        <v>0.54</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>91.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>122.70333000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>2942.2941929843073</v>
+      </c>
+      <c r="P18">
+        <v>4174</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>1303.114452</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2578939159707113E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>1500</v>
+      </c>
+      <c r="F19">
+        <v>5300</v>
+      </c>
+      <c r="G19">
+        <v>297736.10466011299</v>
+      </c>
+      <c r="H19">
+        <v>1.9</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1126.4568000000002</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>79155.070568115683</v>
+      </c>
+      <c r="P19">
+        <v>7436</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>21312.170880000001</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="2"/>
+        <v>3.7140782613749238E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="21">
+        <f>AVERAGE(N9:N19)</f>
+        <v>104273.88646517909</v>
+      </c>
+      <c r="P21" s="21">
+        <f>AVERAGE(P9:P19)</f>
+        <v>5267.181818181818</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21">
+        <f>AVERAGE(R9:R19)</f>
+        <v>22843.953167418182</v>
+      </c>
+      <c r="U21" s="9">
+        <f>AVERAGE(U9:U19)</f>
+        <v>4.8016954538032345E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N22" s="21">
+        <f>((N13+N15)/2)*(58.8/96.2)+(N14)*(26.4/96.2)+(N16)*(9.1/96.2)+((N10+N18)/2)*(1.8/96.2)+((N9+N11+N12+N17+N19)/5)*(0.1/96.2)</f>
+        <v>5568.4445739627981</v>
+      </c>
+      <c r="P22" s="21">
+        <f>((P13+P15)/2)*(58.8/96.2)+(P14)*(26.4/96.2)+(P16)*(9.1/96.2)+((P10+P18)/2)*(1.8/96.2)+((P9+P11+P12+P17+P19)/5)*(0.1/96.2)</f>
+        <v>3028.1517671517663</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21">
+        <f>((R13+R15)/2)*(58.8/96.2)+(R14)*(26.4/96.2)+(R16)*(9.1/96.2)+((R10+R18)/2)*(1.8/96.2)+((R9+R11+R12+R17+R19)/5)*(0.1/96.2)</f>
+        <v>145.53329397106029</v>
+      </c>
+      <c r="U22" s="12">
+        <f>((U13+U15)/2)*(58.8/96.2)+(U14)*(26.4/96.2)+(U16)*(9.1/96.2)+((U10+U18)/2)*(1.8/96.2)+((U9+U11+U12+U17+U19)/5)*(0.1/96.2)</f>
+        <v>1.4733459973606227E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="U23" s="9"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="34">
+        <v>502</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="34">
+        <v>250</v>
+      </c>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="34">
+        <f>D28/1.341</f>
+        <v>186.42803877703207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2080</v>
+      </c>
+      <c r="E30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="34">
+        <f>D29*0.003412*D30</f>
+        <v>1323.0723340790455</v>
+      </c>
+      <c r="E31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="41">
+        <f>(D27*D29)/(D31*10^6)</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G27" r:id="rId1" xr:uid="{89D540DE-65F8-419E-8E02-FD08F0D4350B}"/>
+    <hyperlink ref="G28" r:id="rId2" xr:uid="{2BEBA02A-CA41-4A57-93D0-D9F4D2610A4F}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{098A2275-9E62-4836-8A3D-FE6E71782B1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC2D184-069E-47A4-BC3F-9F054759DD84}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(760,1000)</f>
+        <v>880</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(373.1,597)</f>
+        <v>485.05</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(975,1200)</f>
+        <v>1087.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(1492.5,2238.8)</f>
+        <v>1865.65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18">
+        <f>(D6)*(1.5*1000000)</f>
+        <v>1320000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19">
+        <f>(1.5*1000000)*(0.7*8760)</f>
+        <v>9198000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20">
+        <f>G19*3412</f>
+        <v>31383576000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21">
+        <f>G18/G20</f>
+        <v>4.2060216464815867E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22">
+        <f>(D7*(1.5*1000000))/G20</f>
+        <v>2.3183304541203336E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24">
+        <f>(D11)*(1.5*1000000)</f>
+        <v>1631250000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25">
+        <f>(1.5*1000000)*(0.7*8760)</f>
+        <v>9198000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26">
+        <f>G25*3412</f>
+        <v>31383576000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27">
+        <f>G24/G26</f>
+        <v>5.1977824324417333E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28">
+        <f>(D12*(1.5*1000000))/G26</f>
+        <v>8.9170048690436044E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="12">
+        <f>(G21*0.75)+(G27*0.25)</f>
+        <v>4.4539618429716232E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="9">
+        <f>G32*0.6</f>
+        <v>2.6723771057829738E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="9">
+        <f>(G22*0.75)+(G28*0.25)</f>
+        <v>3.9679990578511508E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5463D77-55A0-4A3F-A167-AF9495B144EE}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="39">
+        <f>2758*1.03</f>
+        <v>2840.7400000000002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <f>18*365</f>
+        <v>6570</v>
+      </c>
+      <c r="F5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7">
+        <f>E4*E5</f>
+        <v>118260</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8">
+        <f>E7*0.003412</f>
+        <v>403.50312000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="12">
+        <f>E3/(E8*10^6)</f>
+        <v>7.0401933942914745E-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="8">
+        <v>862500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="8">
+        <f>AVERAGE(B16,B17)</f>
+        <v>1181250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="32">
+        <v>8760</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="32">
+        <v>6051100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23">
+        <f>B20*B21</f>
+        <v>53007636000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B18/B23</f>
+        <v>2.2284525195577483E-5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{0EBADC85-7E7A-4D8B-B878-F45654EA16CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C30D489-B45F-43AF-8E94-CF692044B143}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="11" width="13.1796875" customWidth="1"/>
+    <col min="2" max="11" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2116,25 +7865,25 @@
       </c>
       <c r="B2" s="12">
         <f>Boilers!$A$18</f>
-        <v>6.301329580541494E-6</v>
+        <v>5.6711966224873446E-5</v>
       </c>
       <c r="C2" s="12">
-        <f>Boilers!$G$44</f>
+        <f>Boilers!$G$43</f>
         <v>1.4986595988547842E-5</v>
       </c>
       <c r="D2" s="12">
-        <f>Boilers!A40</f>
-        <v>3.9618218239405674E-6</v>
+        <f>Boilers!A39</f>
+        <v>1.5989491110961776E-5</v>
       </c>
       <c r="E2" s="10">
         <f>C2</f>
         <v>1.4986595988547842E-5</v>
       </c>
       <c r="F2" s="12">
-        <f>Boilers!$G$45</f>
+        <f>Boilers!$G$44</f>
         <v>9.436004881678272E-6</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="40">
         <v>0</v>
       </c>
       <c r="H2" s="10">
@@ -2150,122 +7899,141 @@
         <v>9.436004881678272E-6</v>
       </c>
       <c r="K2" s="12">
-        <f>Boilers!A61</f>
-        <v>5.9427327359108515E-6</v>
+        <f>Boilers!A60</f>
+        <v>2.3984236666442662E-5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="10">
+        <f>B2</f>
+        <v>5.6711966224873446E-5</v>
+      </c>
+      <c r="C3" s="10">
+        <f>C2</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="D3" s="10">
+        <f>D2</f>
+        <v>1.5989491110961776E-5</v>
+      </c>
+      <c r="E3" s="10">
+        <f>E2</f>
+        <v>1.4986595988547842E-5</v>
+      </c>
+      <c r="F3" s="10">
+        <f>F2</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="G3" s="40">
+        <f>G2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>0</v>
-      </c>
-      <c r="F3" s="28">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H5" si="0">F3</f>
-        <v>0</v>
+        <f>H2</f>
+        <v>9.436004881678272E-6</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I5" si="1">F3</f>
-        <v>0</v>
+        <f>I2</f>
+        <v>9.436004881678272E-6</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J5" si="2">F3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="28">
-        <v>0</v>
+        <f>J2</f>
+        <v>9.436004881678272E-6</v>
+      </c>
+      <c r="K3" s="10">
+        <f>K2</f>
+        <v>2.3984236666442662E-5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="12">
+        <f>'NB Medium Temp'!D40</f>
+        <v>3.4771933032458345E-5</v>
+      </c>
+      <c r="C4" s="10">
+        <f>D4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'NB Medium Temp'!D41</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="E4" s="10">
+        <f>C4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="F4" s="10">
+        <f>D4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
       <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F4</f>
+        <v>3.1780367029653324E-5</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F4</f>
+        <v>3.1780367029653324E-5</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="28">
-        <v>0</v>
+        <f>F4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="K4" s="10">
+        <f>D4</f>
+        <v>3.1780367029653324E-5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="12">
+        <f>'NB High Temp'!F10</f>
+        <v>1.7204637228083889E-4</v>
+      </c>
+      <c r="C5" s="12">
+        <f>'NB High Temp'!F45</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="D5" s="12">
+        <f>'NB High Temp'!F56</f>
+        <v>2.0725243194734525E-5</v>
+      </c>
+      <c r="E5" s="10">
+        <f>C5</f>
+        <v>4.5951806950193628E-6</v>
+      </c>
+      <c r="F5" s="10">
+        <f>D5*(F2/D2)</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="G5" s="40">
         <v>0</v>
       </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
       <c r="H5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5</f>
+        <v>1.2230751723262388E-5</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F5</f>
+        <v>1.2230751723262388E-5</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="28">
-        <v>0</v>
+        <f>F5</f>
+        <v>1.2230751723262388E-5</v>
+      </c>
+      <c r="K5" s="12">
+        <f>'NB High Temp'!F67</f>
+        <v>3.265784625690839E-5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2281,111 +8049,114 @@
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="D6" s="12">
-        <f>Cooling!B27</f>
+        <f>Cooling!$B$27</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:F6" si="3">$D$6</f>
+        <f>$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="3"/>
+        <f>$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="40">
         <v>0</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" ref="H6:K6" si="4">$D$6</f>
+        <f>$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="4"/>
+        <f>$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" si="4"/>
+        <f>$D$6</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" si="4"/>
-        <v>1.8088159747275158E-5</v>
+        <f>$D$6*(K2/D2)</f>
+        <v>2.7132239620912736E-5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28">
-        <v>0</v>
+      <c r="B7" s="12">
+        <f>'Machine Drive'!$U$22</f>
+        <v>1.4733459973606227E-4</v>
       </c>
       <c r="C7" s="10">
         <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="D7" s="10">
+        <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="E7" s="10">
+        <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="F7" s="12">
+        <f>'Machine Drive'!D32</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="G7" s="40">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" ref="D7:E7" si="5">$F$7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
       <c r="H7" s="10">
-        <f t="shared" ref="H7:K7" si="6">$F$7</f>
-        <v>0</v>
+        <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>$F$7</f>
+        <v>7.0734511678239686E-5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="12">
+        <f>Electrochemical!$G32</f>
+        <v>4.4539618429716232E-5</v>
+      </c>
+      <c r="C8" s="40">
         <v>0</v>
       </c>
-      <c r="C8" s="24">
+      <c r="D8" s="40">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="E8" s="40">
         <v>0</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="40">
         <v>0</v>
       </c>
-      <c r="F8" s="24">
+      <c r="G8" s="40">
         <v>0</v>
       </c>
-      <c r="G8" s="24">
+      <c r="H8" s="40">
         <v>0</v>
       </c>
-      <c r="H8" s="24">
+      <c r="I8" s="40">
         <v>0</v>
       </c>
-      <c r="I8" s="24">
+      <c r="J8" s="40">
         <v>0</v>
       </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
+      <c r="K8" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2393,47 +8164,89 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0</v>
+      <c r="B9" s="12">
+        <f>Other!E9</f>
+        <v>7.0401933942914745E-6</v>
+      </c>
+      <c r="C9" s="10">
+        <f>D9*(C2/D2)</f>
+        <v>2.0886792055175448E-5</v>
+      </c>
+      <c r="D9" s="12">
+        <f>Other!B24</f>
+        <v>2.2284525195577483E-5</v>
       </c>
       <c r="E9" s="10">
         <f>C9</f>
+        <v>2.0886792055175448E-5</v>
+      </c>
+      <c r="F9" s="10">
+        <f>D9*(F2/D2)</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="G9" s="40">
         <v>0</v>
       </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
       <c r="H9" s="10">
-        <f t="shared" ref="H9" si="7">F9</f>
-        <v>0</v>
+        <f>F9</f>
+        <v>1.3150943145851209E-5</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" ref="I9" si="8">F9</f>
-        <v>0</v>
+        <f>F9</f>
+        <v>1.3150943145851209E-5</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" ref="J9" si="9">F9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="28">
-        <v>0</v>
+        <f>F9</f>
+        <v>1.3150943145851209E-5</v>
+      </c>
+      <c r="K9" s="10">
+        <f>D9*(K2/D2)</f>
+        <v>3.3426787793366228E-5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c7ef1c8b-ba63-4702-8e74-5094387a97de}" enabled="0" method="" siteId="{c7ef1c8b-ba63-4702-8e74-5094387a97de}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
+++ b/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffRissman\CodeRepositories\eps-us\InputData\indst\IECCpUAEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffRissman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC49DAD-8EC2-4972-8D6D-74C169019BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F913FADC-8114-409A-98A0-C5A4C9DE821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="345" windowWidth="37395" windowHeight="22410" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
+    <workbookView xWindow="10440" yWindow="1410" windowWidth="40695" windowHeight="21765" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="391">
-  <si>
-    <t>IECCpUAEU Industrial Equipment Capital Cost per Unit Annual Energy Use</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="401">
   <si>
     <t>Sources:</t>
   </si>
@@ -532,15 +529,6 @@
     <t>equiv. HP</t>
   </si>
   <si>
-    <t>Weighted Average for electric motors/drive units:</t>
-  </si>
-  <si>
-    <t>HP bins represented are 1-5, 6-20, 21-50,101-200,1000+. Not represented are 51-100 (2.9% of motor stock), 201-500 (0.7%), 501-1000 (0.2%). Weighted averages thus take % of motor inventory in a given HP bin and divide by 96.2%; weighted averages also average the values within a bin.</t>
-  </si>
-  <si>
-    <t>Operating hours, and percentage of motors in a given horsepower bin for calculating weighted averages,</t>
-  </si>
-  <si>
     <t>The recent assessment did not have data disaggregated in the appropriate way to provide more recent values.</t>
   </si>
   <si>
@@ -1216,9 +1204,6 @@
     <t>Adjustment to Operating Hours per Year</t>
   </si>
   <si>
-    <t>It seems reasonable that machine drive (light green) is more expensive than other end uses, given that it's producing rotational kinetic energy rather than heat or cooling.</t>
-  </si>
-  <si>
     <t>fully commercialized, electrified, high-temperature heating equipment.  For instance, cement kilns burn coal and steam crackers use natural gas.  Other electrical furnaces</t>
   </si>
   <si>
@@ -1226,9 +1211,6 @@
   </si>
   <si>
     <t>exist (like induction furnaces), but electric arc furnaces are likely the most common type and are likely the best choice to use as our model equipment type for high-temp</t>
-  </si>
-  <si>
-    <t>electrified industrial heating equipment. So we do not consider them to bean outlier - i.e., the higher cost is justified.</t>
   </si>
   <si>
     <t>Note: since the CapEx here scales with tonnes capacity, the final cost per unit capacity isn't affected by the annual production capacity figure above.</t>
@@ -1258,6 +1240,54 @@
       <t xml:space="preserve"> because it is the whole plant, not just the kiln.  Kiln-only data are just below.</t>
     </r>
   </si>
+  <si>
+    <t>Annual energy delivered (MMbtu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Distr. by Energy Use of Motor HP Category </t>
+  </si>
+  <si>
+    <t>Operating hours, and percentage of motors in a given horsepower bin for calculating weighted averages based on energy distribution,</t>
+  </si>
+  <si>
+    <t>Representative Horsepower Bin</t>
+  </si>
+  <si>
+    <t>101-200</t>
+  </si>
+  <si>
+    <t>21-50</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>6-20</t>
+  </si>
+  <si>
+    <t>1000+</t>
+  </si>
+  <si>
+    <t>$/BTU/yr</t>
+  </si>
+  <si>
+    <t>Weighted Average (by distribution of energy use) for electric motors/drive units (see below for breakdown):</t>
+  </si>
+  <si>
+    <t>Bins represented in the data by horsepower (HP) are 1-5, 6-20, 21-50,101-200,1000+. Not represented are 51-100 (12.7% of motor energy use), 201-500 (15.8%), 501-1000 (13.4%). Weighted averages thus take % of motor energy use in a given HP bin and divide by the remaining 58.1%. Weighted averages also average the energy values within a bin (e.g., averaging $/BTU/yr across all equipment in the 101-200 HP bin).</t>
+  </si>
+  <si>
+    <t>% Distr. by Energy Use Per HP Bin</t>
+  </si>
+  <si>
+    <t>Average Annual Energy Delivered by HP Bin (MMbtu)</t>
+  </si>
+  <si>
+    <t>electrified industrial heating equipment. So we do not consider them to be an outlier - i.e., the higher cost is justified.</t>
+  </si>
+  <si>
+    <t>IECCpUAEU Industrial Equipment Capital Cost per Unit Annual Energy Use</t>
+  </si>
 </sst>
 </file>
 
@@ -1269,7 +1299,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,8 +1361,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,8 +1438,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1426,13 +1476,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1504,16 +1607,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -2209,7 +2340,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4733459973606227E-4</c:v>
+                  <c:v>2.9652197760109964E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.0734511678239686E-5</c:v>
@@ -3271,23 +3402,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>185146</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>120400</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950AD3EF-C451-057E-3713-FD08E757AEE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91347AF-CFB1-2100-496E-C236D3AEE0E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,8 +3441,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="647700" y="22075140"/>
-          <a:ext cx="7991475" cy="2429260"/>
+          <a:off x="548640" y="22539960"/>
+          <a:ext cx="7927066" cy="2423160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3716,20 +3847,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,22 +3870,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,27 +3895,27 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -3794,27 +3925,27 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -3824,27 +3955,27 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -3854,67 +3985,67 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -3924,22 +4055,22 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
@@ -3949,32 +4080,32 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
@@ -3984,12 +4115,12 @@
     </row>
     <row r="64" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -3997,12 +4128,12 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
@@ -4012,17 +4143,17 @@
     </row>
     <row r="70" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
@@ -4030,12 +4161,12 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
@@ -4045,12 +4176,12 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
@@ -4058,12 +4189,12 @@
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -4073,7 +4204,7 @@
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4212,7 @@
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
@@ -4091,22 +4222,22 @@
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
@@ -4116,27 +4247,27 @@
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
@@ -4146,12 +4277,12 @@
     </row>
     <row r="101" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B102" s="37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
@@ -4159,32 +4290,32 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
@@ -4194,47 +4325,47 @@
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4412,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4289,12 +4420,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4302,18 +4433,18 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>56603</v>
@@ -4328,7 +4459,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>25717</v>
@@ -4343,7 +4474,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>60507</v>
@@ -4358,7 +4489,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <f>AVERAGE(B6:B8)</f>
@@ -4375,17 +4506,17 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,15 +4524,15 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,12 +4541,12 @@
         <v>5.6711966224873446E-5</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4424,12 +4555,12 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B24" s="8">
         <v>80375</v>
@@ -4437,7 +4568,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B25" s="8">
         <v>91475</v>
@@ -4445,7 +4576,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B26" s="8">
         <f>AVERAGE(B24:B25)</f>
@@ -4454,7 +4585,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B28">
         <v>400</v>
@@ -4462,7 +4593,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B29">
         <v>0.74570000000000003</v>
@@ -4470,7 +4601,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <f>B28*B29</f>
@@ -4479,7 +4610,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="22">
         <v>5280</v>
@@ -4487,42 +4618,42 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B34">
         <f>B30*B32</f>
         <v>1574918.4000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>3412.14</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B36">
         <f>B34*B35</f>
         <v>5373842069.3760004</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4531,12 +4662,12 @@
         <v>1.5989491110961776E-5</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4545,27 +4676,27 @@
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="G42" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>2000</v>
@@ -4591,7 +4722,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>2000</v>
@@ -4617,7 +4748,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>2000</v>
@@ -4643,60 +4774,60 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <f>B43*B32</f>
         <v>10560000</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>3412.14</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <f>B48*B49</f>
         <v>36032198400</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -4704,13 +4835,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="20"/>
     </row>
@@ -4720,7 +4851,7 @@
         <v>2.3984236666442662E-5</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4742,330 +4873,330 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8">
         <v>307500</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>4000</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="8">
         <v>75863</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="8">
         <v>6226</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="25">
         <v>0.45</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="25">
         <v>0.15</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="21">
         <f>B8/B11</f>
         <v>168584.44444444444</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="21">
         <f>B9/B12</f>
         <v>41506.666666666672</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>100000</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>3412.14</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="9">
         <f>B14*B17</f>
         <v>16858444444.444445</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="9">
         <f>B15*B18</f>
         <v>141626557.60000002</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="9">
         <f>SUM(B20:B21)</f>
         <v>17000071002.044445</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="12">
         <f>B5/B26</f>
         <v>1.8088159747275158E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="8">
         <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="8">
         <v>500</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="8">
         <f>AVERAGE(B32:B33)</f>
         <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="8">
         <f>B34*B36</f>
         <v>175000</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41">
         <v>0.57599999999999996</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42">
         <f>B41*B36</f>
         <v>288</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <f>B6</f>
         <v>4000</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <f>B42*B44</f>
         <v>1152000</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="9">
         <f>B46*B18</f>
         <v>3930785280</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="12">
         <f>B38/B47</f>
         <v>4.4520366169683022E-5</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5092,131 +5223,131 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B5">
         <v>492000</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B6">
         <v>135000</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B7">
         <v>474000</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B8">
         <v>70000</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B9">
         <v>22000</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B10">
         <v>18000</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B11">
         <v>216000</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B12">
         <v>51000</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B13">
         <v>125000</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="43"/>
+      <c r="A15" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="42"/>
       <c r="C15" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B17" s="20">
         <v>13400</v>
@@ -5224,7 +5355,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B18" s="20">
         <v>5300</v>
@@ -5232,40 +5363,40 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B19" s="20">
         <v>13600</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B23">
         <v>4380</v>
@@ -5276,7 +5407,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B24">
         <v>4380</v>
@@ -5287,7 +5418,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -5295,32 +5426,32 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B33" s="1">
         <f>Boilers!B32</f>
@@ -5329,43 +5460,43 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="47">
+        <v>54</v>
+      </c>
+      <c r="B36" s="46">
         <v>3412.14</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="A38" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B40">
         <f>$B$33*D23*B36</f>
@@ -5382,7 +5513,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B41">
         <f>$B$33*C24</f>
@@ -5399,50 +5530,50 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B53">
         <v>722000</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="43">
         <f>B53/SUM($B$53:$B$54)</f>
         <v>0.45012468827930174</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B54">
         <v>882000</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="43">
         <f>B54/SUM($B$53:$B$54)</f>
         <v>0.54987531172069826</v>
       </c>
@@ -5468,7 +5599,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5479,12 +5610,12 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I2" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C3" s="25"/>
       <c r="F3" s="25">
@@ -5492,107 +5623,107 @@
         <v>264.16000000000003</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F4">
         <v>450</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="32"/>
       <c r="F5" s="32">
         <v>800000</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F7">
         <f>F4*F5</f>
         <v>360000000</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F8">
         <f>F7*0.003412</f>
         <v>1228320</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F9" s="25">
         <f>F3*F5</f>
         <v>211328000.00000003</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F10" s="12">
         <f>F9/(F8*10^6)</f>
         <v>1.7204637228083889E-4</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E12">
         <f>8760*155</f>
         <v>1357800</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -5603,13 +5734,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F16" s="20">
         <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5618,7 +5749,7 @@
         <v>26.356589147286826</v>
       </c>
       <c r="G17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5627,7 +5758,7 @@
         <v>9.4883645023316546E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5636,80 +5767,80 @@
         <v>2.7808805692648461E-5</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F21">
         <v>36000000</v>
       </c>
       <c r="G21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F22" s="20">
         <f>F21*0.14</f>
         <v>5040000.0000000009</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F23">
         <f>AVERAGE(5.1,7.8)</f>
         <v>6.4499999999999993</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F24">
         <v>8000</v>
       </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F25">
         <v>600</v>
       </c>
       <c r="G25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5718,7 +5849,7 @@
         <v>3869.9999999999995</v>
       </c>
       <c r="G26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I26" s="15"/>
     </row>
@@ -5728,95 +5859,95 @@
         <v>1289999.9999999998</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F28">
         <f>F27*277.778</f>
         <v>358333619.99999994</v>
       </c>
       <c r="G28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F29">
         <f>F28*0.003412</f>
         <v>1222634.3114399998</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F30" s="12">
         <f>(F21*0.14)/(F29*10^6)</f>
         <v>4.1222464909102436E-6</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F34">
         <v>21.08</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F35">
         <v>0.76</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F36" s="34">
         <f>F34*F35</f>
         <v>16.020799999999998</v>
       </c>
       <c r="G36" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5824,7 +5955,7 @@
         <v>1.3284</v>
       </c>
       <c r="G37" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5833,7 +5964,7 @@
         <v>21.282030719999998</v>
       </c>
       <c r="G38" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5841,7 +5972,7 @@
         <v>1.32</v>
       </c>
       <c r="G39" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5850,7 +5981,7 @@
         <v>28.092280550399998</v>
       </c>
       <c r="G40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5859,7 +5990,7 @@
         <v>4.3553923333953488</v>
       </c>
       <c r="G41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5867,7 +5998,7 @@
         <v>277.77800000000002</v>
       </c>
       <c r="G42" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5876,7 +6007,7 @@
         <v>1.5679399856703368E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5884,7 +6015,7 @@
         <v>3412.14</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5893,12 +6024,12 @@
         <v>4.5951806950193628E-6</v>
       </c>
       <c r="G45" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -5909,99 +6040,99 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F49" s="32">
         <v>6000000</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F50">
         <v>300</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F51">
         <v>8760</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F52">
         <v>1100</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F54">
         <f>(F3*365)*F52</f>
         <v>106060240.00000001</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F55" s="34">
         <f>F54*0.003412</f>
         <v>361877.53888000007</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F56" s="12">
         <f>(F49*1.25)/(F55*10^6)</f>
         <v>2.0725243194734525E-5</v>
       </c>
       <c r="G56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -6012,90 +6143,90 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F60">
         <f>574-184</f>
         <v>390</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F61">
         <v>3500</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F62" s="32">
         <v>1500000</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F64">
         <f>F61*F62</f>
         <v>5250000000</v>
       </c>
       <c r="G64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F65">
         <f>F64*0.003412</f>
         <v>17913000</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F66" s="25">
         <f>F60*F62</f>
         <v>585000000</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F67" s="12">
         <f>F66/(F65*10^6)</f>
         <v>3.265784625690839E-5</v>
       </c>
       <c r="G67" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6119,108 +6250,115 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8383B1-B2B0-41DD-8BAC-656486EFD613}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="2" max="2" width="104.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="I8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="J8" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="27"/>
       <c r="P8" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="27"/>
       <c r="R8" s="29" t="s">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>125</v>
+      <c r="T8" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -6228,10 +6366,10 @@
       <c r="E9">
         <v>1500</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="21">
         <v>43.754184261800326</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="21">
         <v>512727.48211595422</v>
       </c>
       <c r="H9">
@@ -6240,36 +6378,40 @@
       <c r="I9">
         <v>1000</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="21">
         <f t="shared" ref="J9:J14" si="0">AVERAGE(D9,E9)</f>
         <v>750.15</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="21">
         <f>J9*1.34102</f>
         <v>1005.9661530000001</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="21">
         <f t="shared" ref="N9:N19" si="1">F9*(((D9+E9)/2)/D9)^H9*(800/I9)</f>
         <v>191398.76147944329</v>
       </c>
       <c r="P9">
         <v>7436</v>
       </c>
-      <c r="R9">
-        <f>J9*0.003412*P9</f>
+      <c r="R9" s="43">
+        <f>0.157/0.581</f>
+        <v>0.27022375215146299</v>
+      </c>
+      <c r="T9" s="21">
+        <f t="shared" ref="T9:T19" si="2">J9*0.003412*P9</f>
         <v>19032.529744800002</v>
       </c>
-      <c r="U9" s="9">
-        <f t="shared" ref="U9:U19" si="2">N9/(R9*10^6)</f>
+      <c r="W9" s="9">
+        <f t="shared" ref="W9:W19" si="3">N9/(T9*10^6)</f>
         <v>1.005640154229821E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>126</v>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -6277,10 +6419,10 @@
       <c r="E10">
         <v>150</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="21">
         <v>1455.1962633016838</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="21">
         <v>22223.515169375642</v>
       </c>
       <c r="H10">
@@ -6289,36 +6431,40 @@
       <c r="I10">
         <v>1000</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="21">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10:L19" si="3">J10*1.34102</f>
+      <c r="L10" s="21">
+        <f t="shared" ref="L10:L19" si="4">J10*1.34102</f>
         <v>105.94058000000001</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="21">
         <f t="shared" si="1"/>
         <v>9793.3452423684339</v>
       </c>
       <c r="P10">
         <v>4174</v>
       </c>
-      <c r="R10">
-        <f t="shared" ref="R10:R19" si="4">J10*0.003412*P10</f>
+      <c r="R10" s="43">
+        <f>0.144/0.581</f>
+        <v>0.24784853700516352</v>
+      </c>
+      <c r="T10" s="21">
+        <f t="shared" si="2"/>
         <v>1125.0933520000001</v>
       </c>
-      <c r="U10" s="9">
-        <f t="shared" si="2"/>
+      <c r="W10" s="9">
+        <f t="shared" si="3"/>
         <v>8.7044734776536431E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>350</v>
@@ -6326,10 +6472,10 @@
       <c r="E11">
         <v>7000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="21">
         <v>64088.852077797135</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="21">
         <v>1137028.3379406705</v>
       </c>
       <c r="H11">
@@ -6338,36 +6484,40 @@
       <c r="I11">
         <v>1000</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="21">
         <f t="shared" si="0"/>
         <v>3675</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
+      <c r="L11" s="21">
+        <f t="shared" si="4"/>
         <v>4928.2485000000006</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="21">
         <f t="shared" si="1"/>
         <v>490020.45239808032</v>
       </c>
       <c r="P11">
         <v>7436</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
+      <c r="R11" s="43">
+        <f>0.157/0.581</f>
+        <v>0.27022375215146299</v>
+      </c>
+      <c r="T11" s="21">
+        <f t="shared" si="2"/>
         <v>93240.747600000002</v>
       </c>
-      <c r="U11" s="9">
-        <f t="shared" si="2"/>
+      <c r="W11" s="9">
+        <f t="shared" si="3"/>
         <v>5.2554324692917872E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>128</v>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>500</v>
@@ -6375,10 +6525,10 @@
       <c r="E12">
         <v>7000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="21">
         <v>77307.967291430425</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="21">
         <v>655523.04372978187</v>
       </c>
       <c r="H12">
@@ -6387,36 +6537,40 @@
       <c r="I12">
         <v>1000</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="21">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
+      <c r="L12" s="21">
+        <f t="shared" si="4"/>
         <v>5028.8250000000007</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="21">
         <f t="shared" si="1"/>
         <v>316310.68638940249</v>
       </c>
       <c r="P12">
         <v>7436</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="4"/>
+      <c r="R12" s="43">
+        <f>0.157/0.581</f>
+        <v>0.27022375215146299</v>
+      </c>
+      <c r="T12" s="21">
+        <f t="shared" si="2"/>
         <v>95143.62</v>
       </c>
-      <c r="U12" s="9">
-        <f t="shared" si="2"/>
+      <c r="W12" s="9">
+        <f t="shared" si="3"/>
         <v>3.3245601374995242E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>129</v>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>0.35</v>
@@ -6424,10 +6578,10 @@
       <c r="E13">
         <v>1.8</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="21">
         <v>1297.2736980632467</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="21">
         <v>1800</v>
       </c>
       <c r="H13">
@@ -6436,36 +6590,40 @@
       <c r="I13">
         <v>1000</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="21">
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
+      <c r="L13" s="21">
+        <f t="shared" si="4"/>
         <v>1.4415964999999999</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="21">
         <f t="shared" si="1"/>
         <v>1298.941773935192</v>
       </c>
       <c r="P13">
         <v>2745</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="4"/>
+      <c r="R13" s="43">
+        <f>0.048/0.581</f>
+        <v>8.2616179001721177E-2</v>
+      </c>
+      <c r="T13" s="21">
+        <f t="shared" si="2"/>
         <v>10.0683855</v>
       </c>
-      <c r="U13" s="9">
-        <f t="shared" si="2"/>
+      <c r="W13" s="9">
+        <f t="shared" si="3"/>
         <v>1.290119229081159E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>129</v>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>1.8</v>
@@ -6473,10 +6631,10 @@
       <c r="E14">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="21">
         <v>1800</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="21">
         <v>5537.4069913635094</v>
       </c>
       <c r="H14">
@@ -6485,36 +6643,40 @@
       <c r="I14">
         <v>1000</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="21">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
+      <c r="L14" s="21">
+        <f t="shared" si="4"/>
         <v>11.264568000000001</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="21">
         <f t="shared" si="1"/>
         <v>3257.8875198502201</v>
       </c>
       <c r="P14">
         <v>3391</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="4"/>
+      <c r="R14" s="43">
+        <f>0.104/0.581</f>
+        <v>0.17900172117039587</v>
+      </c>
+      <c r="T14" s="21">
+        <f t="shared" si="2"/>
         <v>97.18877280000001</v>
       </c>
-      <c r="U14" s="9">
-        <f t="shared" si="2"/>
+      <c r="W14" s="9">
+        <f t="shared" si="3"/>
         <v>3.3521233224690123E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
       </c>
       <c r="D15">
         <v>0.35</v>
@@ -6522,10 +6684,10 @@
       <c r="E15">
         <v>7.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="21">
         <v>3198.2717479261355</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="21">
         <v>22051.649944608704</v>
       </c>
       <c r="H15">
@@ -6534,36 +6696,40 @@
       <c r="I15">
         <v>1000</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="21">
         <f>AVERAGE(D15,E15)</f>
         <v>3.9249999999999998</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
+      <c r="L15" s="21">
+        <f t="shared" si="4"/>
         <v>5.2635035000000006</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="21">
         <f t="shared" si="1"/>
         <v>11731.714005716587</v>
       </c>
       <c r="P15">
         <v>2745</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="4"/>
+      <c r="R15" s="43">
+        <f>0.048/0.581</f>
+        <v>8.2616179001721177E-2</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="2"/>
         <v>36.761314500000005</v>
       </c>
-      <c r="U15" s="9">
-        <f t="shared" si="2"/>
+      <c r="W15" s="9">
+        <f t="shared" si="3"/>
         <v>3.1913205948379741E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>133</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -6571,10 +6737,10 @@
       <c r="E16">
         <v>50</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="21">
         <v>1691.6842777294887</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="21">
         <v>6000</v>
       </c>
       <c r="H16">
@@ -6583,36 +6749,40 @@
       <c r="I16">
         <v>1000</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="21">
         <f t="shared" ref="J16:J19" si="5">AVERAGE(D16,E16)</f>
         <v>26.5</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
+      <c r="L16" s="21">
+        <f t="shared" si="4"/>
         <v>35.537030000000001</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="21">
         <f t="shared" si="1"/>
         <v>3607.159769818647</v>
       </c>
       <c r="P16">
         <v>3530</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="4"/>
+      <c r="R16" s="43">
+        <f>0.127/0.581</f>
+        <v>0.21858864027538727</v>
+      </c>
+      <c r="T16" s="21">
+        <f t="shared" si="2"/>
         <v>319.17554000000001</v>
       </c>
-      <c r="U16" s="9">
-        <f t="shared" si="2"/>
+      <c r="W16" s="9">
+        <f t="shared" si="3"/>
         <v>1.1301491868138288E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>134</v>
+    <row r="17" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -6620,10 +6790,10 @@
       <c r="E17">
         <v>1500</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="21">
         <v>6000</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="21">
         <v>76911.661151322129</v>
       </c>
       <c r="H17">
@@ -6632,36 +6802,40 @@
       <c r="I17">
         <v>1000</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="21">
         <f t="shared" si="5"/>
         <v>775</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
+      <c r="L17" s="21">
+        <f t="shared" si="4"/>
         <v>1039.2905000000001</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="21">
         <f t="shared" si="1"/>
         <v>37496.437777254898</v>
       </c>
       <c r="P17">
         <v>7436</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="4"/>
+      <c r="R17" s="43">
+        <f>0.157/0.581</f>
+        <v>0.27022375215146299</v>
+      </c>
+      <c r="T17" s="21">
+        <f t="shared" si="2"/>
         <v>19663.014800000001</v>
       </c>
-      <c r="U17" s="9">
-        <f t="shared" si="2"/>
+      <c r="W17" s="9">
+        <f t="shared" si="3"/>
         <v>1.9069526295253003E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>135</v>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -6669,10 +6843,10 @@
       <c r="E18">
         <v>180</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="21">
         <v>580.86364315386913</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="21">
         <v>5300</v>
       </c>
       <c r="H18">
@@ -6681,36 +6855,40 @@
       <c r="I18">
         <v>1000</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="21">
         <f t="shared" si="5"/>
         <v>91.5</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
+      <c r="L18" s="21">
+        <f t="shared" si="4"/>
         <v>122.70333000000001</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="21">
         <f t="shared" si="1"/>
         <v>2942.2941929843073</v>
       </c>
       <c r="P18">
         <v>4174</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="4"/>
+      <c r="R18" s="43">
+        <f>0.144/0.581</f>
+        <v>0.24784853700516352</v>
+      </c>
+      <c r="T18" s="21">
+        <f t="shared" si="2"/>
         <v>1303.114452</v>
       </c>
-      <c r="U18" s="9">
-        <f t="shared" si="2"/>
+      <c r="W18" s="9">
+        <f t="shared" si="3"/>
         <v>2.2578939159707113E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>135</v>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19">
         <v>180</v>
@@ -6718,10 +6896,10 @@
       <c r="E19">
         <v>1500</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="21">
         <v>5300</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="21">
         <v>297736.10466011299</v>
       </c>
       <c r="H19">
@@ -6730,176 +6908,361 @@
       <c r="I19">
         <v>1000</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="21">
         <f t="shared" si="5"/>
         <v>840</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
+      <c r="L19" s="21">
+        <f t="shared" si="4"/>
         <v>1126.4568000000002</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="21">
         <f t="shared" si="1"/>
         <v>79155.070568115683</v>
       </c>
       <c r="P19">
         <v>7436</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="4"/>
+      <c r="R19" s="43">
+        <f>0.157/0.581</f>
+        <v>0.27022375215146299</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="2"/>
         <v>21312.170880000001</v>
       </c>
-      <c r="U19" s="9">
-        <f t="shared" si="2"/>
+      <c r="W19" s="9">
+        <f t="shared" si="3"/>
         <v>3.7140782613749238E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="21">
-        <f>AVERAGE(N9:N19)</f>
-        <v>104273.88646517909</v>
-      </c>
-      <c r="P21" s="21">
-        <f>AVERAGE(P9:P19)</f>
-        <v>5267.181818181818</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="21">
-        <f>AVERAGE(R9:R19)</f>
+      <c r="T21" s="21">
+        <f>AVERAGE(T9:T19)</f>
         <v>22843.953167418182</v>
       </c>
-      <c r="U21" s="9">
-        <f>AVERAGE(U9:U19)</f>
+      <c r="W21" s="9">
+        <f>AVERAGE(W9:W19)</f>
         <v>4.8016954538032345E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N22" s="21">
-        <f>((N13+N15)/2)*(58.8/96.2)+(N14)*(26.4/96.2)+(N16)*(9.1/96.2)+((N10+N18)/2)*(1.8/96.2)+((N9+N11+N12+N17+N19)/5)*(0.1/96.2)</f>
-        <v>5568.4445739627981</v>
-      </c>
-      <c r="P22" s="21">
-        <f>((P13+P15)/2)*(58.8/96.2)+(P14)*(26.4/96.2)+(P16)*(9.1/96.2)+((P10+P18)/2)*(1.8/96.2)+((P9+P11+P12+P17+P19)/5)*(0.1/96.2)</f>
-        <v>3028.1517671517663</v>
-      </c>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="21">
-        <f>((R13+R15)/2)*(58.8/96.2)+(R14)*(26.4/96.2)+(R16)*(9.1/96.2)+((R10+R18)/2)*(1.8/96.2)+((R9+R11+R12+R17+R19)/5)*(0.1/96.2)</f>
-        <v>145.53329397106029</v>
-      </c>
-      <c r="U22" s="12">
-        <f>((U13+U15)/2)*(58.8/96.2)+(U14)*(26.4/96.2)+(U16)*(9.1/96.2)+((U10+U18)/2)*(1.8/96.2)+((U9+U11+U12+U17+U19)/5)*(0.1/96.2)</f>
-        <v>1.4733459973606227E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U23" s="9"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="T22" s="47">
+        <f>SUMPRODUCT(F24:F28, I24:I28)</f>
+        <v>13814.301562165096</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="48">
+        <f>SUMPRODUCT(F24:F28, N24:N28)</f>
+        <v>2.9652197760109964E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C23" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C24" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55">
+        <f>0.048/0.581</f>
+        <v>8.2616179001721177E-2</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58">
+        <f>((T13+T15)/2)</f>
+        <v>23.414850000000001</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="51">
+        <f>((W13+W15)/2)</f>
+        <v>2.2407199119595664E-4</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C25" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55">
+        <f>0.104/0.581</f>
+        <v>0.17900172117039587</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58">
+        <f>T14</f>
+        <v>97.18877280000001</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="51">
+        <f>W14</f>
+        <v>3.3521233224690123E-5</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C26" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55">
+        <f>0.127/0.581</f>
+        <v>0.21858864027538727</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58">
+        <f>T16</f>
+        <v>319.17554000000001</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="51">
+        <f>W16</f>
+        <v>1.1301491868138288E-5</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="T26" s="21"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C27" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55">
+        <f>0.144/0.581</f>
+        <v>0.24784853700516352</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58">
+        <f>((T10+T18)/2)</f>
+        <v>1214.1039020000001</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="51">
+        <f>((W10+W18)/2)</f>
+        <v>5.481183696812177E-6</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C28" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55">
+        <f>0.157/0.581</f>
+        <v>0.27022375215146299</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58">
+        <f>((T9+T11+T12+T17+T19)/5)</f>
+        <v>49678.416604960003</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="51">
+        <f>((W9+W11+W12+W17+W19)/5)</f>
+        <v>4.8514850079979492E-6</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="T28" s="21"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="21">
+        <v>502</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="21">
+        <v>250</v>
+      </c>
+      <c r="E34" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="G34" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="34">
-        <v>502</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D35" s="21">
+        <f>D34/1.341</f>
+        <v>186.42803877703207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="34">
-        <v>250</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D36" s="21">
+        <v>2080</v>
+      </c>
+      <c r="E36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="21">
+        <f>D35*0.003412*D36</f>
+        <v>1323.0723340790455</v>
+      </c>
+      <c r="E37" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" s="34">
-        <f>D28/1.341</f>
-        <v>186.42803877703207</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D30" s="34">
-        <v>2080</v>
-      </c>
-      <c r="E30" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="34">
-        <f>D29*0.003412*D30</f>
-        <v>1323.0723340790455</v>
-      </c>
-      <c r="E31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="41">
-        <f>(D27*D29)/(D31*10^6)</f>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="12">
+        <f>(D33*D35)/(D37*10^6)</f>
         <v>7.0734511678239686E-5</v>
       </c>
-      <c r="E32" t="s">
-        <v>146</v>
+      <c r="E38" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I28:M28"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" xr:uid="{89D540DE-65F8-419E-8E02-FD08F0D4350B}"/>
-    <hyperlink ref="G28" r:id="rId2" xr:uid="{2BEBA02A-CA41-4A57-93D0-D9F4D2610A4F}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{098A2275-9E62-4836-8A3D-FE6E71782B1D}"/>
+    <hyperlink ref="G33" r:id="rId1" xr:uid="{89D540DE-65F8-419E-8E02-FD08F0D4350B}"/>
+    <hyperlink ref="G34" r:id="rId2" xr:uid="{2BEBA02A-CA41-4A57-93D0-D9F4D2610A4F}"/>
+    <hyperlink ref="G36" r:id="rId3" xr:uid="{098A2275-9E62-4836-8A3D-FE6E71782B1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId4"/>
@@ -6920,7 +7283,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -6931,12 +7294,12 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6944,94 +7307,94 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <f>AVERAGE(760,1000)</f>
         <v>880</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7">
         <f>AVERAGE(373.1,597)</f>
         <v>485.05</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D11">
         <f>AVERAGE(975,1200)</f>
         <v>1087.5</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D12">
         <f>AVERAGE(1492.5,2238.8)</f>
         <v>1865.65</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D15">
         <v>1.5</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16">
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G18">
         <f>(D6)*(1.5*1000000)</f>
@@ -7040,7 +7403,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G19">
         <f>(1.5*1000000)*(0.7*8760)</f>
@@ -7049,7 +7412,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G20">
         <f>G19*3412</f>
@@ -7058,7 +7421,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G21">
         <f>G18/G20</f>
@@ -7067,7 +7430,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22">
         <f>(D7*(1.5*1000000))/G20</f>
@@ -7076,7 +7439,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G24">
         <f>(D11)*(1.5*1000000)</f>
@@ -7085,7 +7448,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G25">
         <f>(1.5*1000000)*(0.7*8760)</f>
@@ -7094,7 +7457,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G26">
         <f>G25*3412</f>
@@ -7103,7 +7466,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G27">
         <f>G24/G26</f>
@@ -7112,7 +7475,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G28">
         <f>(D12*(1.5*1000000))/G26</f>
@@ -7121,12 +7484,12 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G32" s="12">
         <f>(G21*0.75)+(G27*0.25)</f>
@@ -7135,7 +7498,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G33" s="9">
         <f>G32*0.6</f>
@@ -7147,7 +7510,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G35" s="9">
         <f>(G22*0.75)+(G28*0.25)</f>
@@ -7175,7 +7538,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7187,184 +7550,184 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E3" s="39">
         <f>2758*1.03</f>
         <v>2840.7400000000002</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E4">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <f>18*365</f>
         <v>6570</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <f>E4*E5</f>
         <v>118260</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E8">
         <f>E7*0.003412</f>
         <v>403.50312000000002</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E9" s="12">
         <f>E3/(E8*10^6)</f>
         <v>7.0401933942914745E-6</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B16" s="8">
         <v>862500</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B17" s="8">
         <v>1500000</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B18" s="8">
         <f>AVERAGE(B16,B17)</f>
         <v>1181250</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="32">
         <v>8760</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B21" s="32">
         <v>6051100</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B23">
         <f>B20*B21</f>
         <v>53007636000</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="12">
         <f>B18/B23</f>
         <v>2.2284525195577483E-5</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7380,7 +7743,7 @@
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7392,42 +7755,42 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="12">
         <f>Boilers!$A$18</f>
@@ -7471,7 +7834,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10">
         <f>B2</f>
@@ -7516,7 +7879,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="12">
         <f>'NB Medium Temp'!D40</f>
@@ -7560,7 +7923,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12">
         <f>'NB High Temp'!F10</f>
@@ -7604,7 +7967,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12">
         <f>Cooling!$B$49</f>
@@ -7648,11 +8011,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="12">
-        <f>'Machine Drive'!$U$22</f>
-        <v>1.4733459973606227E-4</v>
+        <f>'Machine Drive'!$W$22</f>
+        <v>2.9652197760109964E-5</v>
       </c>
       <c r="C7" s="10">
         <f>$F$7</f>
@@ -7667,7 +8030,7 @@
         <v>7.0734511678239686E-5</v>
       </c>
       <c r="F7" s="12">
-        <f>'Machine Drive'!D32</f>
+        <f>'Machine Drive'!D38</f>
         <v>7.0734511678239686E-5</v>
       </c>
       <c r="G7" s="40">
@@ -7692,7 +8055,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12">
         <f>Electrochemical!$G32</f>
@@ -7728,7 +8091,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="12">
         <f>Other!E9</f>
@@ -7772,37 +8135,32 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
+++ b/InputData/indst/IECCpUAEU/Indst Eqpt Cap Cost per Unit Ann E Use.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\IECCpUAEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0560A66-7556-4964-BE59-791368B78515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A542C6-27E1-4418-B8E4-1EA209F7A70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="2355" windowWidth="26505" windowHeight="14175" firstSheet="2" activeTab="9" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" firstSheet="3" activeTab="9" xr2:uid="{6A73F6BA-E2AF-4EFC-B7D0-AD586970A910}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="393">
   <si>
     <t>IECCpUAEU Industrial Equipment Capital Cost per Unit Annual Energy Use</t>
   </si>
@@ -1258,6 +1258,12 @@
       </rPr>
       <t xml:space="preserve"> because it is the whole plant, not just the kiln.  Kiln-only data are just below.</t>
     </r>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -3339,15 +3345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>11112</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>7936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4269,15 +4275,15 @@
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>Aggregation!A1</f>
         <v>Unit:  $/(BTU/yr) - dollars of capital cost for equipment per BTU consumed annually by that equipment</v>
@@ -4322,8 +4328,16 @@
         <f>Aggregation!K1</f>
         <v>hydrogen if</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="str">
+        <f>Aggregation!L1</f>
+        <v>green hydrogen if</v>
+      </c>
+      <c r="M1" t="str">
+        <f>Aggregation!M1</f>
+        <v>low carbon hydrogen if</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>Aggregation!A2</f>
         <v>boilers</v>
@@ -4368,8 +4382,16 @@
         <f>Aggregation!K2</f>
         <v>2.3984236666442662E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <f>Aggregation!L2</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+      <c r="M2">
+        <f>Aggregation!M2</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>Aggregation!A3</f>
         <v>nonboiler low temp</v>
@@ -4414,8 +4436,16 @@
         <f>Aggregation!K3</f>
         <v>2.3984236666442662E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <f>Aggregation!L3</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+      <c r="M3">
+        <f>Aggregation!M3</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>Aggregation!A4</f>
         <v>nonboiler med temp</v>
@@ -4460,8 +4490,16 @@
         <f>Aggregation!K4</f>
         <v>3.1780367029653324E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f>Aggregation!L4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="M4">
+        <f>Aggregation!M4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Aggregation!A5</f>
         <v>nonboiler high temp</v>
@@ -4506,8 +4544,16 @@
         <f>Aggregation!K5</f>
         <v>3.265784625690839E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f>Aggregation!L5</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+      <c r="M5">
+        <f>Aggregation!M5</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Aggregation!A6</f>
         <v>cooling</v>
@@ -4552,8 +4598,16 @@
         <f>Aggregation!K6</f>
         <v>2.7132239620912736E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f>Aggregation!L6</f>
+        <v>2.7132239620912736E-5</v>
+      </c>
+      <c r="M6">
+        <f>Aggregation!M6</f>
+        <v>2.7132239620912736E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>Aggregation!A7</f>
         <v>machine drive</v>
@@ -4598,8 +4652,16 @@
         <f>Aggregation!K7</f>
         <v>7.0734511678239686E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f>Aggregation!L7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="M7">
+        <f>Aggregation!M7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>Aggregation!A8</f>
         <v>electrochemical</v>
@@ -4644,8 +4706,16 @@
         <f>Aggregation!K8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <f>Aggregation!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>Aggregation!M8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>Aggregation!A9</f>
         <v>other processes</v>
@@ -4688,6 +4758,14 @@
       </c>
       <c r="K9">
         <f>Aggregation!K9</f>
+        <v>3.3426787793366228E-5</v>
+      </c>
+      <c r="L9">
+        <f>Aggregation!L9</f>
+        <v>3.3426787793366228E-5</v>
+      </c>
+      <c r="M9">
+        <f>Aggregation!M9</f>
         <v>3.3426787793366228E-5</v>
       </c>
     </row>
@@ -7812,19 +7890,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C30D489-B45F-43AF-8E94-CF692044B143}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="11" width="13.26953125" customWidth="1"/>
+    <col min="2" max="13" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -7858,8 +7936,14 @@
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -7902,53 +7986,69 @@
         <f>Boilers!A60</f>
         <v>2.3984236666442662E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="12">
+        <f>K2</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+      <c r="M2" s="12">
+        <f t="shared" ref="M2:M9" si="0">L2</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="10">
-        <f>B2</f>
+        <f t="shared" ref="B3:K3" si="1">B2</f>
         <v>5.6711966224873446E-5</v>
       </c>
       <c r="C3" s="10">
-        <f>C2</f>
+        <f t="shared" si="1"/>
         <v>1.4986595988547842E-5</v>
       </c>
       <c r="D3" s="10">
-        <f>D2</f>
+        <f t="shared" si="1"/>
         <v>1.5989491110961776E-5</v>
       </c>
       <c r="E3" s="10">
-        <f>E2</f>
+        <f t="shared" si="1"/>
         <v>1.4986595988547842E-5</v>
       </c>
       <c r="F3" s="10">
-        <f>F2</f>
+        <f t="shared" si="1"/>
         <v>9.436004881678272E-6</v>
       </c>
       <c r="G3" s="40">
-        <f>G2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3" s="10">
-        <f>H2</f>
+        <f t="shared" si="1"/>
         <v>9.436004881678272E-6</v>
       </c>
       <c r="I3" s="10">
-        <f>I2</f>
+        <f t="shared" si="1"/>
         <v>9.436004881678272E-6</v>
       </c>
       <c r="J3" s="10">
-        <f>J2</f>
+        <f t="shared" si="1"/>
         <v>9.436004881678272E-6</v>
       </c>
       <c r="K3" s="10">
-        <f>K2</f>
+        <f t="shared" si="1"/>
         <v>2.3984236666442662E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:M3" si="2">K3</f>
+        <v>2.3984236666442662E-5</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3984236666442662E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -7991,8 +8091,16 @@
         <f>D4</f>
         <v>3.1780367029653324E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:M4" si="3">K4</f>
+        <v>3.1780367029653324E-5</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1780367029653324E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -8035,8 +8143,16 @@
         <f>'NB High Temp'!F67</f>
         <v>3.265784625690839E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:M5" si="4">K5</f>
+        <v>3.265784625690839E-5</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="0"/>
+        <v>3.265784625690839E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8079,8 +8195,16 @@
         <f>$D$6*(K2/D2)</f>
         <v>2.7132239620912736E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="10">
+        <f t="shared" ref="L6:M6" si="5">K6</f>
+        <v>2.7132239620912736E-5</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7132239620912736E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -8123,8 +8247,16 @@
         <f>$F$7</f>
         <v>7.0734511678239686E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="10">
+        <f t="shared" ref="L7:M7" si="6">K7</f>
+        <v>7.0734511678239686E-5</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>7.0734511678239686E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -8159,8 +8291,16 @@
       <c r="K8" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="40">
+        <f t="shared" ref="L8:M8" si="7">K8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -8203,13 +8343,21 @@
         <f>D9*(K2/D2)</f>
         <v>3.3426787793366228E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="10">
+        <f t="shared" ref="L9:M9" si="8">K9</f>
+        <v>3.3426787793366228E-5</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3426787793366228E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>286</v>
       </c>
